--- a/DDAf_2023_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -3810,7 +3810,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="12">
-        <v>2.29182542023353</v>
+        <v>2.29182542022353</v>
       </c>
       <c r="D21" s="12">
         <v>3.2641008057248002</v>
@@ -4087,7 +4087,7 @@
         <v>1.1306275761053399</v>
       </c>
       <c r="L23" s="26">
-        <v>-3.1725202302767999</v>
+        <v>-3.1725202202767999</v>
       </c>
       <c r="M23" s="26">
         <v>4.30765911743842</v>
@@ -9060,7 +9060,7 @@
         <v>1.08739283291801</v>
       </c>
       <c r="E63" s="32">
-        <v>0.91131036633482998</v>
+        <v>0.9113103663348</v>
       </c>
       <c r="F63" s="32">
         <v>0.68544433276356997</v>
@@ -11514,7 +11514,7 @@
         <v>173</v>
       </c>
       <c r="C83" s="42">
-        <v>1.4080418615361601</v>
+        <v>1.40804186153621</v>
       </c>
       <c r="D83" s="42">
         <v>0.64957173120240996</v>
@@ -11598,7 +11598,7 @@
         <v>3.2049165877653798</v>
       </c>
       <c r="AE83" s="42">
-        <v>3.0132023851493202</v>
+        <v>3.0132022851493199</v>
       </c>
       <c r="AF83" s="42">
         <v>2.23405790916435</v>
@@ -12045,7 +12045,7 @@
         <v>3.0509005628539101</v>
       </c>
       <c r="P87" s="39">
-        <v>5.26756945062023</v>
+        <v>5.2675694506202202</v>
       </c>
       <c r="Q87" s="39">
         <v>5.2269788402119</v>
@@ -12300,7 +12300,7 @@
         <v>6.8726158971314302</v>
       </c>
       <c r="S89" s="39">
-        <v>8.1476000294689293</v>
+        <v>8.1476000294689506</v>
       </c>
       <c r="T89" s="39">
         <v>8.8781512713189894</v>
@@ -12315,10 +12315,10 @@
         <v>7.4543190831812298</v>
       </c>
       <c r="X89" s="39">
-        <v>6.4290366960748102</v>
+        <v>6.4290366960748502</v>
       </c>
       <c r="Y89" s="39">
-        <v>4.9936930618246702</v>
+        <v>4.9936930618246196</v>
       </c>
       <c r="Z89" s="39">
         <v>4.7824459087209901</v>
@@ -12327,7 +12327,7 @@
         <v>3.90111811703721</v>
       </c>
       <c r="AB89" s="39">
-        <v>3.3934331192915401</v>
+        <v>3.3934331192915299</v>
       </c>
       <c r="AC89" s="39">
         <v>3.42368147398314</v>
@@ -13314,7 +13314,7 @@
         <v>0.76921201055646005</v>
       </c>
       <c r="AC97" s="39">
-        <v>-1.2714202330972999</v>
+        <v>-1.2714202230973</v>
       </c>
       <c r="AD97" s="39">
         <v>1.57424513862334</v>

--- a/DDAf_2023_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF01FFC-5475-4785-9DFD-BC0942497FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7391FB69-7D5E-4DE3-B304-A6253EE2A064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{3EBD840F-74D6-408C-8BC5-C789F269F7D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{44C67735-7355-4873-8688-D43027562FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab04'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab04'!$A$1:$AL$104</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="200">
   <si>
     <t>Tableau 4 : Taux de croissance annuelle du PIB réel par habitant, 1990-2028</t>
   </si>
@@ -153,6 +153,9 @@
     <t>2025</t>
   </si>
   <si>
+    <t>Croissance annuelle moyenne projetée, 2023-28</t>
+  </si>
+  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -342,7 +345,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -420,7 +423,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -474,7 +477,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -615,7 +618,10 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Jusqu'à 2021 les chiffres sont des estimations. A partir de 2022 il s'agit de projections.</t>
+    <t>Jusqu'à 2022 les chiffres sont des estimations. A partir de 2023 il s'agit de projections.</t>
+  </si>
+  <si>
+    <t>Source : Calculs de l'auteur basés sur la base de données des Perspectives de l'économie mondiale du FMI avril 2023 et la Division de la population du Département des affaires économiques et sociales des Nations Unies, World Population Prospects : the 2022 Revision.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1388,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AB563A-8003-4E28-97D6-51D5BB96770C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB396AC1-8B27-42EC-94A6-DCC4FE163796}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1450,7 +1456,7 @@
       <c r="AO1" s="3"/>
       <c r="AP1" s="4"/>
     </row>
-    <row r="2" spans="1:42" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1574,14 +1580,16 @@
       <c r="AO2" s="7">
         <v>2028</v>
       </c>
-      <c r="AP2" s="8"/>
+      <c r="AP2" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="11">
         <v>-6.6264093119513001</v>
@@ -1706,10 +1714,10 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="14">
         <v>5.5593948108145099</v>
@@ -1834,10 +1842,10 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="17">
         <v>6.2490958826843004</v>
@@ -1962,10 +1970,10 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="17">
         <v>3.3256091759874802</v>
@@ -2090,10 +2098,10 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="17">
         <v>1.6509045888299501</v>
@@ -2218,10 +2226,10 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="17">
         <v>-0.63876595092770005</v>
@@ -2346,13 +2354,13 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="17">
         <v>1.87441546850894</v>
@@ -2474,10 +2482,10 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="17">
         <v>-3.3396211835775</v>
@@ -2602,10 +2610,10 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="14">
         <v>-3.1024238476738999</v>
@@ -2730,37 +2738,37 @@
     </row>
     <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" s="17">
         <v>-2.5293655384028</v>
@@ -2858,10 +2866,10 @@
     </row>
     <row r="13" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="21">
         <v>-2.9060250674955999</v>
@@ -2986,10 +2994,10 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="17">
         <v>1.3811068702876099</v>
@@ -3114,10 +3122,10 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="17">
         <v>-8.9630001996583992</v>
@@ -3242,10 +3250,10 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="17">
         <v>-1.7068217262609</v>
@@ -3370,10 +3378,10 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="24">
         <v>0.43115743383233002</v>
@@ -3498,10 +3506,10 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="24">
         <v>-1.8021056996934</v>
@@ -3626,10 +3634,10 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="14">
         <v>-9.5842200014837005</v>
@@ -3754,10 +3762,10 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="24">
         <v>-1.2361135750621</v>
@@ -3882,10 +3890,10 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="24">
         <v>2.31006078406344</v>
@@ -4010,10 +4018,10 @@
     </row>
     <row r="22" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="17">
         <v>-4.5089243061718003</v>
@@ -4138,10 +4146,10 @@
     </row>
     <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="21">
         <v>-5.911384956919</v>
@@ -4266,10 +4274,10 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="17">
         <v>4.4902607253694704</v>
@@ -4394,13 +4402,13 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="17">
         <v>-12.261921502218</v>
@@ -4522,19 +4530,19 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="17">
         <v>9.4487141686611604</v>
@@ -4650,10 +4658,10 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="17">
         <v>-1.0031022564665999</v>
@@ -4778,10 +4786,10 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="17">
         <v>0.65181764422639998</v>
@@ -4906,10 +4914,10 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="17">
         <v>0.1257742365342</v>
@@ -5034,10 +5042,10 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="17">
         <v>5.8763587474377497</v>
@@ -5162,10 +5170,10 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="17">
         <v>-2.0227694268441998</v>
@@ -5290,10 +5298,10 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="17">
         <v>6.3735194622823297</v>
@@ -5418,76 +5426,76 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y33" s="17">
         <v>-0.61803801604539998</v>
@@ -5546,138 +5554,138 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="T34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="U34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="V34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="W34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="X34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y34" s="14">
+      <c r="B34" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="S34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="T34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="V34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="W34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="X34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y34" s="24">
         <v>-52.447843621592</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z34" s="24">
         <v>22.637513636616401</v>
       </c>
-      <c r="AA34" s="14">
+      <c r="AA34" s="24">
         <v>0.58428871838612995</v>
       </c>
-      <c r="AB34" s="14">
+      <c r="AB34" s="24">
         <v>-6.2021293880899997E-2</v>
       </c>
-      <c r="AC34" s="14">
+      <c r="AC34" s="24">
         <v>-12.294388506502001</v>
       </c>
-      <c r="AD34" s="14">
+      <c r="AD34" s="24">
         <v>-2.1883332571822001</v>
       </c>
-      <c r="AE34" s="14">
+      <c r="AE34" s="24">
         <v>0.32535600787211999</v>
       </c>
-      <c r="AF34" s="14">
+      <c r="AF34" s="24">
         <v>0.35112829044403998</v>
       </c>
-      <c r="AG34" s="14">
+      <c r="AG34" s="24">
         <v>-7.8916273754001001</v>
       </c>
-      <c r="AH34" s="14">
+      <c r="AH34" s="24">
         <v>3.93719231285626</v>
       </c>
-      <c r="AI34" s="14">
+      <c r="AI34" s="24">
         <v>4.9418801070906699</v>
       </c>
-      <c r="AJ34" s="14">
+      <c r="AJ34" s="24">
         <v>3.95247176090241</v>
       </c>
-      <c r="AK34" s="14">
+      <c r="AK34" s="24">
         <v>2.8967279774005501</v>
       </c>
-      <c r="AL34" s="14">
+      <c r="AL34" s="24">
         <v>2.7957515260021899</v>
       </c>
-      <c r="AM34" s="14">
+      <c r="AM34" s="24">
         <v>2.6160634166016101</v>
       </c>
-      <c r="AN34" s="14">
+      <c r="AN34" s="24">
         <v>2.5888495888769301</v>
       </c>
-      <c r="AO34" s="14">
+      <c r="AO34" s="24">
         <v>2.55718120775283</v>
       </c>
-      <c r="AP34" s="15">
+      <c r="AP34" s="25">
         <v>2.6908298130629</v>
       </c>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" s="17">
         <v>-0.78680234287749995</v>
@@ -5802,10 +5810,10 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="17">
         <v>4.2547926909440896</v>
@@ -5930,10 +5938,10 @@
     </row>
     <row r="37" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="17">
         <v>3.1178722679592301</v>
@@ -6058,10 +6066,10 @@
     </row>
     <row r="38" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="21">
         <v>0.83898605132481996</v>
@@ -6186,10 +6194,10 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="24">
         <v>-1.6829285156867999</v>
@@ -6314,10 +6322,10 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="17">
         <v>-0.2420146789465</v>
@@ -6442,10 +6450,10 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41" s="24">
         <v>1.10223858057732</v>
@@ -6570,13 +6578,13 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42" s="24">
         <v>-2.9170469757083</v>
@@ -6698,10 +6706,10 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" s="17">
         <v>2.24494484654375</v>
@@ -6826,10 +6834,10 @@
     </row>
     <row r="44" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C44" s="17">
         <v>4.7449415046679801</v>
@@ -6954,10 +6962,10 @@
     </row>
     <row r="45" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="21">
         <v>0.15520357836630999</v>
@@ -7082,10 +7090,10 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" s="17">
         <v>5.7124274752287798</v>
@@ -7210,10 +7218,10 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" s="17">
         <v>-3.1732163890847001</v>
@@ -7338,10 +7346,10 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" s="24">
         <v>-1.0788288898981999</v>
@@ -7466,10 +7474,10 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" s="17">
         <v>-4.8070287216196999</v>
@@ -7594,10 +7602,10 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C50" s="17">
         <v>1.54333792868613</v>
@@ -7722,10 +7730,10 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" s="14">
         <v>0.94908587089167995</v>
@@ -7850,10 +7858,10 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" s="17">
         <v>0.74523953197116999</v>
@@ -7978,10 +7986,10 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C53" s="17">
         <v>2.9348868340933798</v>
@@ -8106,43 +8114,43 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N54" s="17">
         <v>-0.22006606406259999</v>
@@ -8234,10 +8242,10 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" s="17">
         <v>7.2218650329388199</v>
@@ -8362,10 +8370,10 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" s="17">
         <v>-4.3099230823508003</v>
@@ -8490,138 +8498,138 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="24">
+      <c r="B57" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="17">
         <v>-3.0677207233837001</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="17">
         <v>-0.35332038732990001</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="17">
         <v>-0.99416346457680005</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="17">
         <v>-2.2919116813342</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="17">
         <v>-0.69969467182650003</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="17">
         <v>1.4557328994268901</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="17">
         <v>0.32261184588486003</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="17">
         <v>-5.1050880156599997E-2</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="17">
         <v>-2.0018243740631001</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="17">
         <v>2.8074275184969402</v>
       </c>
-      <c r="N57" s="24">
+      <c r="N57" s="17">
         <v>3.8759869052189901</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="17">
         <v>11.570551150972801</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="17">
         <v>6.5933013071378097</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="17">
         <v>7.5047997823247998</v>
       </c>
-      <c r="R57" s="24">
+      <c r="R57" s="17">
         <v>4.1644534484041902</v>
       </c>
-      <c r="S57" s="24">
+      <c r="S57" s="17">
         <v>3.88715915365154</v>
       </c>
-      <c r="T57" s="24">
+      <c r="T57" s="17">
         <v>4.4492047209810899</v>
       </c>
-      <c r="U57" s="24">
+      <c r="U57" s="17">
         <v>4.3230912857187</v>
       </c>
-      <c r="V57" s="24">
+      <c r="V57" s="17">
         <v>5.4380676117791902</v>
       </c>
-      <c r="W57" s="24">
+      <c r="W57" s="17">
         <v>8.2470573040822401</v>
       </c>
-      <c r="X57" s="24">
+      <c r="X57" s="17">
         <v>2.0279363927609801</v>
       </c>
-      <c r="Y57" s="24">
+      <c r="Y57" s="17">
         <v>1.4513903359700999</v>
       </c>
-      <c r="Z57" s="24">
+      <c r="Z57" s="17">
         <v>2.5894317711402399</v>
       </c>
-      <c r="AA57" s="24">
+      <c r="AA57" s="17">
         <v>3.5521608292317501</v>
       </c>
-      <c r="AB57" s="24">
+      <c r="AB57" s="17">
         <v>7.6961405579779998E-2</v>
       </c>
-      <c r="AC57" s="24">
+      <c r="AC57" s="17">
         <v>-4.0527062415308004</v>
       </c>
-      <c r="AD57" s="24">
+      <c r="AD57" s="17">
         <v>-1.7098727467431001</v>
       </c>
-      <c r="AE57" s="24">
+      <c r="AE57" s="17">
         <v>-0.59038945144849997</v>
       </c>
-      <c r="AF57" s="24">
+      <c r="AF57" s="17">
         <v>-0.26345595712719999</v>
       </c>
-      <c r="AG57" s="24">
+      <c r="AG57" s="17">
         <v>-4.1620593351243</v>
       </c>
-      <c r="AH57" s="24">
+      <c r="AH57" s="17">
         <v>1.1828277008771</v>
       </c>
-      <c r="AI57" s="24">
+      <c r="AI57" s="17">
         <v>0.82329654619279002</v>
       </c>
-      <c r="AJ57" s="24">
+      <c r="AJ57" s="17">
         <v>0.80377788833674002</v>
       </c>
-      <c r="AK57" s="24">
+      <c r="AK57" s="17">
         <v>0.60485986205208997</v>
       </c>
-      <c r="AL57" s="24">
+      <c r="AL57" s="17">
         <v>0.58762392824983001</v>
       </c>
-      <c r="AM57" s="24">
+      <c r="AM57" s="17">
         <v>0.63875024450353002</v>
       </c>
-      <c r="AN57" s="24">
+      <c r="AN57" s="17">
         <v>0.65051411095211997</v>
       </c>
-      <c r="AO57" s="24">
+      <c r="AO57" s="17">
         <v>0.69006666269440997</v>
       </c>
-      <c r="AP57" s="25">
+      <c r="AP57" s="18">
         <v>0.63435656461717005</v>
       </c>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C58" s="17">
         <v>-3.4983690329726</v>
@@ -8746,10 +8754,10 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C59" s="17">
         <v>-2.2940843368295001</v>
@@ -8874,10 +8882,10 @@
     </row>
     <row r="60" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C60" s="14">
         <v>2.8292963599451002</v>
@@ -9003,7 +9011,7 @@
     <row r="61" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="19"/>
       <c r="B61" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C61" s="21">
         <v>-0.59397986248419998</v>
@@ -9129,7 +9137,7 @@
     <row r="62" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="27"/>
       <c r="B62" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" s="29">
         <v>-1.0698092483363</v>
@@ -9255,7 +9263,7 @@
     <row r="63" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="27"/>
       <c r="B63" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" s="32">
         <v>1.8210954306037801</v>
@@ -9381,7 +9389,7 @@
     <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C64" s="29">
         <v>-1.2373972728560001</v>
@@ -9507,7 +9515,7 @@
     <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C65" s="36">
         <v>4.4989218117644603</v>
@@ -9633,7 +9641,7 @@
     <row r="66" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" s="39">
         <v>1.6051519494312001</v>
@@ -9660,10 +9668,10 @@
         <v>2.53569134452133</v>
       </c>
       <c r="K66" s="39">
-        <v>1.1978935232880299</v>
+        <v>1.1978935232879999</v>
       </c>
       <c r="L66" s="39">
-        <v>2.13887335081668</v>
+        <v>2.1388733508167102</v>
       </c>
       <c r="M66" s="39">
         <v>3.4046380379197498</v>
@@ -9687,7 +9695,7 @@
         <v>4.0649459226279596</v>
       </c>
       <c r="T66" s="39">
-        <v>4.2301280746302599</v>
+        <v>4.2301280746302696</v>
       </c>
       <c r="U66" s="39">
         <v>1.8354488890598499</v>
@@ -9732,13 +9740,13 @@
         <v>5.3560687045536097</v>
       </c>
       <c r="AI66" s="39">
-        <v>2.6064810577870201</v>
+        <v>2.6064810577870499</v>
       </c>
       <c r="AJ66" s="39">
-        <v>1.9132993471366</v>
+        <v>1.91329934713664</v>
       </c>
       <c r="AK66" s="39">
-        <v>2.0792366892898002</v>
+        <v>2.07923668928977</v>
       </c>
       <c r="AL66" s="39">
         <v>2.2346917256466701</v>
@@ -9759,7 +9767,7 @@
     <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" s="42">
         <v>-0.28996570822349998</v>
@@ -9885,13 +9893,13 @@
     <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C68" s="36">
-        <v>0.34649512151114997</v>
+        <v>0.34649512151119999</v>
       </c>
       <c r="D68" s="36">
-        <v>2.3033366459201101</v>
+        <v>2.3033366459200799</v>
       </c>
       <c r="E68" s="36">
         <v>-1.5886425306586001</v>
@@ -9924,16 +9932,16 @@
         <v>2.5303974584712599</v>
       </c>
       <c r="O68" s="36">
-        <v>2.7005817709423101</v>
+        <v>2.7005817709423199</v>
       </c>
       <c r="P68" s="36">
         <v>3.8296061150243501</v>
       </c>
       <c r="Q68" s="36">
-        <v>3.5161245963979901</v>
+        <v>3.5161245963979599</v>
       </c>
       <c r="R68" s="36">
-        <v>2.9985432015000999</v>
+        <v>2.9985432015001301</v>
       </c>
       <c r="S68" s="36">
         <v>3.2285635818140301</v>
@@ -9945,19 +9953,19 @@
         <v>3.1496730802139399</v>
       </c>
       <c r="V68" s="36">
-        <v>1.6621242880917599</v>
+        <v>1.66212428809173</v>
       </c>
       <c r="W68" s="36">
         <v>4.0270002675847403</v>
       </c>
       <c r="X68" s="36">
-        <v>0.64386324818027996</v>
+        <v>0.64386324818031004</v>
       </c>
       <c r="Y68" s="36">
         <v>5.1725237203737997</v>
       </c>
       <c r="Z68" s="36">
-        <v>0.81097104250721996</v>
+        <v>0.81097104250720997</v>
       </c>
       <c r="AA68" s="36">
         <v>0.97418834040566005</v>
@@ -9984,10 +9992,10 @@
         <v>2.5071668067266701</v>
       </c>
       <c r="AI68" s="36">
-        <v>1.49601210087337</v>
+        <v>1.49601210087336</v>
       </c>
       <c r="AJ68" s="36">
-        <v>1.6824291371228699</v>
+        <v>1.6824291371228799</v>
       </c>
       <c r="AK68" s="36">
         <v>2.1085503666168099</v>
@@ -10011,133 +10019,133 @@
     <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C69" s="36">
-        <v>2.06481813000042</v>
+        <v>-1.1126548209336999</v>
       </c>
       <c r="D69" s="36">
-        <v>-1.3252777340341999</v>
+        <v>-3.8933121530529999</v>
       </c>
       <c r="E69" s="36">
-        <v>-1.9038831952458</v>
+        <v>-4.4908698010331998</v>
       </c>
       <c r="F69" s="36">
-        <v>-1.9467349003884</v>
+        <v>-4.9086088682532996</v>
       </c>
       <c r="G69" s="36">
-        <v>0.30058500371793001</v>
+        <v>-2.2084066253241001</v>
       </c>
       <c r="H69" s="36">
-        <v>3.40560923197968</v>
+        <v>2.1434748484965498</v>
       </c>
       <c r="I69" s="36">
-        <v>1.5077737295592799</v>
+        <v>0.76134350429765996</v>
       </c>
       <c r="J69" s="36">
-        <v>-0.5800215733713</v>
+        <v>-1.7420901944305001</v>
       </c>
       <c r="K69" s="36">
-        <v>1.2493884914806599</v>
+        <v>0.18241313140636001</v>
       </c>
       <c r="L69" s="36">
-        <v>1.37792600696326</v>
+        <v>0.21725805109102</v>
       </c>
       <c r="M69" s="36">
-        <v>-4.3041771653200001E-2</v>
+        <v>-1.4647493463975001</v>
       </c>
       <c r="N69" s="36">
-        <v>2.8233895929136099</v>
+        <v>1.81832933815905</v>
       </c>
       <c r="O69" s="36">
-        <v>1.59285944546028</v>
+        <v>1.3313204873698801</v>
       </c>
       <c r="P69" s="36">
-        <v>1.85605130231139</v>
+        <v>2.0449541973405401</v>
       </c>
       <c r="Q69" s="36">
-        <v>2.9376529838437899</v>
+        <v>3.11539469097622</v>
       </c>
       <c r="R69" s="36">
-        <v>4.2341769470350998</v>
+        <v>4.4712376510282299</v>
       </c>
       <c r="S69" s="36">
-        <v>2.8593052046670402</v>
+        <v>2.6737873942505699</v>
       </c>
       <c r="T69" s="36">
-        <v>4.4858972975850104</v>
+        <v>4.5047751816776902</v>
       </c>
       <c r="U69" s="36">
-        <v>1.9410335672449199</v>
+        <v>2.1576463614131298</v>
       </c>
       <c r="V69" s="36">
-        <v>2.2716177876117198</v>
+        <v>1.60904383520372</v>
       </c>
       <c r="W69" s="36">
-        <v>4.2655347672783002</v>
+        <v>4.2042308177761099</v>
       </c>
       <c r="X69" s="36">
-        <v>-3.1985351094537999</v>
+        <v>-1.1065728744626999</v>
       </c>
       <c r="Y69" s="36">
-        <v>-0.891281798219</v>
+        <v>-0.23319234682350001</v>
       </c>
       <c r="Z69" s="36">
-        <v>2.8836545313895701</v>
+        <v>3.20117263719801</v>
       </c>
       <c r="AA69" s="36">
-        <v>2.75225368240429</v>
+        <v>2.7535347294913399</v>
       </c>
       <c r="AB69" s="36">
-        <v>2.9975174065435901</v>
+        <v>2.8346412640412999</v>
       </c>
       <c r="AC69" s="36">
-        <v>1.1032424786709401</v>
+        <v>0.33692982282744</v>
       </c>
       <c r="AD69" s="36">
-        <v>2.4576791428629301</v>
+        <v>1.9356671197405899</v>
       </c>
       <c r="AE69" s="36">
-        <v>3.3532375005819701</v>
+        <v>2.9266372004399299</v>
       </c>
       <c r="AF69" s="36">
-        <v>3.51155382689161</v>
+        <v>3.0607534641883198</v>
       </c>
       <c r="AG69" s="36">
-        <v>-1.8083827085890001</v>
+        <v>-1.8567236332331001</v>
       </c>
       <c r="AH69" s="36">
-        <v>3.8117004365151801</v>
+        <v>3.5566396306987</v>
       </c>
       <c r="AI69" s="36">
-        <v>2.47324122834284</v>
+        <v>2.48926718502925</v>
       </c>
       <c r="AJ69" s="36">
-        <v>2.7532046058875301</v>
+        <v>2.6587253610311201</v>
       </c>
       <c r="AK69" s="36">
-        <v>3.2202080603049099</v>
+        <v>3.07100868739305</v>
       </c>
       <c r="AL69" s="36">
-        <v>3.6559108690574398</v>
+        <v>3.4836219417901102</v>
       </c>
       <c r="AM69" s="36">
-        <v>3.6462806735674298</v>
+        <v>3.5081336301821602</v>
       </c>
       <c r="AN69" s="36">
-        <v>3.6974585175892298</v>
+        <v>3.51230671613314</v>
       </c>
       <c r="AO69" s="36">
-        <v>3.6758245077559901</v>
+        <v>3.4642085824322399</v>
       </c>
       <c r="AP69" s="37">
-        <v>3.5789792952602499</v>
+        <v>3.4077170663511001</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C70" s="36">
         <v>-5.8602877840129004</v>
@@ -10263,7 +10271,7 @@
     <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71" s="36">
         <v>-0.59397986248419998</v>
@@ -10317,10 +10325,10 @@
         <v>2.8778394905941398</v>
       </c>
       <c r="T71" s="36">
-        <v>3.1842847117098199</v>
+        <v>3.18428471170987</v>
       </c>
       <c r="U71" s="36">
-        <v>3.7544531291194798</v>
+        <v>3.75445312911947</v>
       </c>
       <c r="V71" s="36">
         <v>3.9387364428727998</v>
@@ -10359,10 +10367,10 @@
         <v>-3.1389803726775001</v>
       </c>
       <c r="AH71" s="36">
-        <v>1.78917300449729</v>
+        <v>1.78917300449733</v>
       </c>
       <c r="AI71" s="36">
-        <v>1.33883814515394</v>
+        <v>1.3388381451539</v>
       </c>
       <c r="AJ71" s="36">
         <v>1.2983130315258899</v>
@@ -10374,10 +10382,10 @@
         <v>1.4998258947914</v>
       </c>
       <c r="AM71" s="36">
-        <v>1.5208248204257899</v>
+        <v>1.5208248204257699</v>
       </c>
       <c r="AN71" s="36">
-        <v>1.52196189947442</v>
+        <v>1.5219618994744499</v>
       </c>
       <c r="AO71" s="36">
         <v>1.61020306301496</v>
@@ -10389,7 +10397,7 @@
     <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C72" s="36">
         <v>9.0398570873789996E-2</v>
@@ -10470,22 +10478,22 @@
         <v>3.7027667711180601</v>
       </c>
       <c r="AC72" s="36">
-        <v>1.97368302478012</v>
+        <v>1.9736830247800901</v>
       </c>
       <c r="AD72" s="36">
-        <v>2.3666679728467299</v>
+        <v>2.3666679728467401</v>
       </c>
       <c r="AE72" s="36">
-        <v>1.6213920929458301</v>
+        <v>1.6213920929458501</v>
       </c>
       <c r="AF72" s="36">
-        <v>2.1368248774150702</v>
+        <v>2.1368248774150498</v>
       </c>
       <c r="AG72" s="36">
         <v>-1.6991410714655</v>
       </c>
       <c r="AH72" s="36">
-        <v>2.63324537028429</v>
+        <v>2.6332453702843099</v>
       </c>
       <c r="AI72" s="36">
         <v>1.4572501327734499</v>
@@ -10515,7 +10523,7 @@
     <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C73" s="36">
         <v>-2.7935390460877998</v>
@@ -10527,10 +10535,10 @@
         <v>-3.5614375660045998</v>
       </c>
       <c r="F73" s="36">
-        <v>-1.1310408084237</v>
+        <v>-1.1310408084236001</v>
       </c>
       <c r="G73" s="36">
-        <v>-0.66200117564250005</v>
+        <v>-0.66200117564259997</v>
       </c>
       <c r="H73" s="36">
         <v>1.1205784511946599</v>
@@ -10641,7 +10649,7 @@
     <row r="74" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C74" s="36">
         <v>0.45131994746784998</v>
@@ -10767,7 +10775,7 @@
     <row r="75" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C75" s="39">
         <v>-4.7253731869719999</v>
@@ -10893,7 +10901,7 @@
     <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" s="42">
         <v>6.2556516981255603</v>
@@ -11019,136 +11027,136 @@
     <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C77" s="36">
-        <v>-3.1032039186631999</v>
+        <v>-3.9234240260147</v>
       </c>
       <c r="D77" s="36">
-        <v>2.00327131568572</v>
+        <v>1.3514822817282801</v>
       </c>
       <c r="E77" s="36">
-        <v>1.2453300983570601</v>
+        <v>0.91605872254124998</v>
       </c>
       <c r="F77" s="36">
-        <v>2.7595181283707002</v>
+        <v>3.2982383141904301</v>
       </c>
       <c r="G77" s="36">
-        <v>3.1255415464418501</v>
+        <v>3.9453470380473998</v>
       </c>
       <c r="H77" s="36">
-        <v>2.0210153471273</v>
+        <v>2.0317305181255101</v>
       </c>
       <c r="I77" s="36">
-        <v>1.0210249580193</v>
+        <v>1.3569562782176501</v>
       </c>
       <c r="J77" s="36">
-        <v>3.16420525903836</v>
+        <v>3.0314317523187202</v>
       </c>
       <c r="K77" s="36">
-        <v>-0.31348322907409998</v>
+        <v>-0.17970235675419999</v>
       </c>
       <c r="L77" s="36">
-        <v>-2.7315558772872999</v>
+        <v>-2.2251203240806001</v>
       </c>
       <c r="M77" s="36">
-        <v>1.6966175882378001</v>
+        <v>1.6795148186290301</v>
       </c>
       <c r="N77" s="36">
-        <v>-0.48553381915940003</v>
+        <v>-0.71187705091859999</v>
       </c>
       <c r="O77" s="36">
-        <v>-1.0116702115186</v>
+        <v>-0.11322370751040001</v>
       </c>
       <c r="P77" s="36">
-        <v>0.87099731085300003</v>
+        <v>1.7466626467586699</v>
       </c>
       <c r="Q77" s="36">
-        <v>5.9686407928559202</v>
+        <v>4.9708061900347396</v>
       </c>
       <c r="R77" s="36">
-        <v>3.8857637523673398</v>
+        <v>3.4083491529458199</v>
       </c>
       <c r="S77" s="36">
-        <v>4.4614894633641002</v>
+        <v>4.06225217000953</v>
       </c>
       <c r="T77" s="36">
-        <v>5.57952874492746</v>
+        <v>5.4036511450003699</v>
       </c>
       <c r="U77" s="36">
-        <v>3.8970277368716801</v>
+        <v>3.9015297055139699</v>
       </c>
       <c r="V77" s="36">
-        <v>-1.9738663723017</v>
+        <v>-1.7122605194833</v>
       </c>
       <c r="W77" s="36">
-        <v>5.5708478459870303</v>
+        <v>6.3743699317073199</v>
       </c>
       <c r="X77" s="36">
-        <v>3.8628008544923498</v>
+        <v>3.9583772018083199</v>
       </c>
       <c r="Y77" s="36">
-        <v>1.62530160176404</v>
+        <v>1.35211296610048</v>
       </c>
       <c r="Z77" s="36">
-        <v>2.3103079674322098</v>
+        <v>2.52389119783845</v>
       </c>
       <c r="AA77" s="36">
-        <v>-0.42939696128600002</v>
+        <v>1.70341902437E-3</v>
       </c>
       <c r="AB77" s="36">
-        <v>-2.0898559412990001</v>
+        <v>-1.6187364435608</v>
       </c>
       <c r="AC77" s="36">
-        <v>-3.3108288283091998</v>
+        <v>-2.2247868151054</v>
       </c>
       <c r="AD77" s="36">
-        <v>-0.14410404842640001</v>
+        <v>0.74342634755915005</v>
       </c>
       <c r="AE77" s="36">
-        <v>-0.37562547240959998</v>
+        <v>0.34495911979728</v>
       </c>
       <c r="AF77" s="36">
-        <v>-0.87732549279439997</v>
+        <v>-0.1934791362222</v>
       </c>
       <c r="AG77" s="36">
-        <v>-6.9157935953019001</v>
+        <v>-6.4634923207943</v>
       </c>
       <c r="AH77" s="36">
-        <v>6.8243152447619799</v>
+        <v>6.87060701856592</v>
       </c>
       <c r="AI77" s="36">
-        <v>3.5386713807649999</v>
+        <v>3.4268404867017499</v>
       </c>
       <c r="AJ77" s="36">
-        <v>0.56014025365527997</v>
+        <v>0.54660839041030995</v>
       </c>
       <c r="AK77" s="36">
-        <v>1.55783373463667</v>
+        <v>1.5848495756837899</v>
       </c>
       <c r="AL77" s="36">
-        <v>1.52470592889304</v>
+        <v>1.6045955610710401</v>
       </c>
       <c r="AM77" s="36">
-        <v>2.00523462041475</v>
+        <v>2.07603758714174</v>
       </c>
       <c r="AN77" s="36">
-        <v>1.6819693071092701</v>
+        <v>1.7429732912017499</v>
       </c>
       <c r="AO77" s="36">
-        <v>1.71442207270493</v>
+        <v>1.76797708899241</v>
       </c>
       <c r="AP77" s="37">
-        <v>1.6966910934030699</v>
+        <v>1.7551345014047199</v>
       </c>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C78" s="36">
-        <v>2.3757090571834301</v>
+        <v>2.3757090571834598</v>
       </c>
       <c r="D78" s="36">
         <v>1.13863567060115</v>
@@ -11160,13 +11168,13 @@
         <v>-0.88935230958959999</v>
       </c>
       <c r="G78" s="36">
-        <v>2.4224353517285202</v>
+        <v>2.42243535172855</v>
       </c>
       <c r="H78" s="36">
         <v>2.6585692638056599</v>
       </c>
       <c r="I78" s="36">
-        <v>1.82105014240786</v>
+        <v>1.82105014240787</v>
       </c>
       <c r="J78" s="36">
         <v>2.5089341354085</v>
@@ -11175,7 +11183,7 @@
         <v>2.8524306608950698</v>
       </c>
       <c r="L78" s="36">
-        <v>2.7651646140833299</v>
+        <v>2.76516461408329</v>
       </c>
       <c r="M78" s="36">
         <v>3.7466460500817198</v>
@@ -11190,7 +11198,7 @@
         <v>0.83367689313093996</v>
       </c>
       <c r="Q78" s="36">
-        <v>2.4223597660003402</v>
+        <v>2.4223597660002998</v>
       </c>
       <c r="R78" s="36">
         <v>1.7895532300164401</v>
@@ -11238,16 +11246,16 @@
         <v>1.82058213444016</v>
       </c>
       <c r="AG78" s="36">
-        <v>-5.6369634122481003</v>
+        <v>-5.6369634122481997</v>
       </c>
       <c r="AH78" s="36">
-        <v>5.6255829873946199</v>
+        <v>5.6255829873946404</v>
       </c>
       <c r="AI78" s="36">
         <v>3.15360411943522</v>
       </c>
       <c r="AJ78" s="36">
-        <v>0.38909843109884001</v>
+        <v>0.38909843109886999</v>
       </c>
       <c r="AK78" s="36">
         <v>1.8993558331943801</v>
@@ -11259,19 +11267,19 @@
         <v>2.1669051775025698</v>
       </c>
       <c r="AN78" s="36">
-        <v>1.9030872822190601</v>
+        <v>1.9030872822190501</v>
       </c>
       <c r="AO78" s="36">
         <v>1.8229283731939201</v>
       </c>
       <c r="AP78" s="37">
-        <v>2.0391392656923002</v>
+        <v>2.0391392656922802</v>
       </c>
     </row>
     <row r="79" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C79" s="39">
         <v>2.1162093025391502</v>
@@ -11397,133 +11405,133 @@
     <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C80" s="42">
-        <v>-1.067155368354</v>
+        <v>-1.1367888863914</v>
       </c>
       <c r="D80" s="42">
-        <v>1.49414577745166</v>
+        <v>3.6820153669168598</v>
       </c>
       <c r="E80" s="42">
-        <v>-1.6705214940590001</v>
+        <v>-2.4848033526633002</v>
       </c>
       <c r="F80" s="42">
-        <v>-2.9974930914895999</v>
+        <v>-4.0685807529433999</v>
       </c>
       <c r="G80" s="42">
-        <v>-1.3899686268411999</v>
+        <v>-0.87189377801690005</v>
       </c>
       <c r="H80" s="42">
-        <v>-2.1752191942465</v>
+        <v>-2.9968354909331998</v>
       </c>
       <c r="I80" s="42">
-        <v>1.5199252570812301</v>
+        <v>1.5603776010236301</v>
       </c>
       <c r="J80" s="42">
-        <v>-0.41115005178410002</v>
+        <v>-0.73735505158049996</v>
       </c>
       <c r="K80" s="42">
-        <v>0.87639378527176004</v>
+        <v>1.4946736211698799</v>
       </c>
       <c r="L80" s="42">
-        <v>-1.0957766631456001</v>
+        <v>-0.4732174797384</v>
       </c>
       <c r="M80" s="42">
-        <v>2.5550686348433</v>
+        <v>2.5392880329758798</v>
       </c>
       <c r="N80" s="42">
-        <v>2.33739885863677</v>
+        <v>1.6058796772877699</v>
       </c>
       <c r="O80" s="42">
-        <v>5.6986701436236196</v>
+        <v>2.2307575930214498</v>
       </c>
       <c r="P80" s="42">
-        <v>6.2181838625563701</v>
+        <v>6.1041385210214703</v>
       </c>
       <c r="Q80" s="42">
-        <v>5.31728396147611</v>
+        <v>3.9535078503990801</v>
       </c>
       <c r="R80" s="42">
-        <v>4.9395882721772599</v>
+        <v>5.5037036907922898</v>
       </c>
       <c r="S80" s="42">
-        <v>1.911841330451</v>
+        <v>0.67251121222084997</v>
       </c>
       <c r="T80" s="42">
-        <v>3.6214441851120101</v>
+        <v>3.1152395867220699</v>
       </c>
       <c r="U80" s="42">
-        <v>2.4381367489341401</v>
+        <v>1.1565791013539599</v>
       </c>
       <c r="V80" s="42">
-        <v>1.0141085516649899</v>
+        <v>-2.3188478726774</v>
       </c>
       <c r="W80" s="42">
-        <v>4.3883278861822799</v>
+        <v>1.2705192297335399</v>
       </c>
       <c r="X80" s="42">
-        <v>-1.7141526027361</v>
+        <v>-14.639387411623</v>
       </c>
       <c r="Y80" s="42">
-        <v>9.6241587990959108</v>
+        <v>15.484172733021399</v>
       </c>
       <c r="Z80" s="42">
-        <v>-0.19745265120069999</v>
+        <v>-2.4045634701402001</v>
       </c>
       <c r="AA80" s="42">
-        <v>0.71381337354133001</v>
+        <v>-1.9066358716386</v>
       </c>
       <c r="AB80" s="42">
-        <v>-0.3469051331727</v>
+        <v>-0.57409593100379996</v>
       </c>
       <c r="AC80" s="42">
-        <v>-3.1688526744183001</v>
+        <v>-2.0685548965464</v>
       </c>
       <c r="AD80" s="42">
-        <v>0.57754581927202997</v>
+        <v>3.4028972148296099</v>
       </c>
       <c r="AE80" s="42">
-        <v>-0.78107144902100001</v>
+        <v>-0.57773950530810003</v>
       </c>
       <c r="AF80" s="42">
-        <v>-1.8664189325263001</v>
+        <v>-3.3946632956667</v>
       </c>
       <c r="AG80" s="42">
-        <v>-6.9086588277230003</v>
+        <v>-9.9310497937761006</v>
       </c>
       <c r="AH80" s="42">
-        <v>2.30164016909771</v>
+        <v>3.6397685117933101</v>
       </c>
       <c r="AI80" s="42">
-        <v>-0.1812607939068</v>
+        <v>-1.2145077440255001</v>
       </c>
       <c r="AJ80" s="42">
-        <v>1.60153367088239</v>
+        <v>2.5846499768116802</v>
       </c>
       <c r="AK80" s="42">
-        <v>0.91189233804602998</v>
+        <v>1.33758461016132</v>
       </c>
       <c r="AL80" s="42">
-        <v>0.85414023199675004</v>
+        <v>1.2327184972155201</v>
       </c>
       <c r="AM80" s="42">
-        <v>0.74062543490274002</v>
+        <v>0.93474500648362002</v>
       </c>
       <c r="AN80" s="42">
-        <v>0.70590437252051996</v>
+        <v>0.84674945888816999</v>
       </c>
       <c r="AO80" s="42">
-        <v>0.76129348943866004</v>
+        <v>0.91598097793329003</v>
       </c>
       <c r="AP80" s="43">
-        <v>0.79474221769649001</v>
+        <v>1.0533691940494601</v>
       </c>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C81" s="36">
         <v>9.6395283020477098</v>
@@ -11649,148 +11657,148 @@
     <row r="82" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C82" s="36">
-        <v>-1.0697662471128999</v>
+        <v>-1.056988235513</v>
       </c>
       <c r="D82" s="36">
-        <v>-1.3234970118999001</v>
+        <v>-1.5879379608027</v>
       </c>
       <c r="E82" s="36">
-        <v>-2.7744313862010999</v>
+        <v>-2.3984947464678998</v>
       </c>
       <c r="F82" s="36">
-        <v>-0.94824903725849996</v>
+        <v>-0.95566586750579996</v>
       </c>
       <c r="G82" s="36">
-        <v>0.71436920649057001</v>
+        <v>0.25668123040808</v>
       </c>
       <c r="H82" s="36">
-        <v>1.1526107511200501</v>
+        <v>0.87405850144006003</v>
       </c>
       <c r="I82" s="36">
-        <v>2.8127860463833501</v>
+        <v>2.6115122502180701</v>
       </c>
       <c r="J82" s="36">
-        <v>1.22989865568641</v>
+        <v>1.0951549244377099</v>
       </c>
       <c r="K82" s="36">
-        <v>1.7708877767842901</v>
+        <v>1.5044728336363999</v>
       </c>
       <c r="L82" s="36">
-        <v>1.41672356623637</v>
+        <v>0.93917392958281998</v>
       </c>
       <c r="M82" s="36">
-        <v>1.34625773166073</v>
+        <v>1.5483377109006</v>
       </c>
       <c r="N82" s="36">
-        <v>1.7519969350725599</v>
+        <v>2.0529138132848699</v>
       </c>
       <c r="O82" s="36">
-        <v>0.68890831720366996</v>
+        <v>2.3974315705720399</v>
       </c>
       <c r="P82" s="36">
-        <v>1.1420810227821101</v>
+        <v>2.0400271133495398</v>
       </c>
       <c r="Q82" s="36">
-        <v>2.1099152286980298</v>
+        <v>3.0412036307713599</v>
       </c>
       <c r="R82" s="36">
-        <v>2.35719509616787</v>
+        <v>2.6758030942851301</v>
       </c>
       <c r="S82" s="36">
-        <v>3.3542428519182299</v>
+        <v>3.4501731428136702</v>
       </c>
       <c r="T82" s="36">
-        <v>3.2861996036879102</v>
+        <v>3.4955782385638501</v>
       </c>
       <c r="U82" s="36">
-        <v>2.5729342355528502</v>
+        <v>2.8923790565797098</v>
       </c>
       <c r="V82" s="36">
-        <v>4.5154985067470003E-2</v>
+        <v>1.07126205677774</v>
       </c>
       <c r="W82" s="36">
-        <v>2.4019974277207599</v>
+        <v>3.5689995894881998</v>
       </c>
       <c r="X82" s="36">
-        <v>0.98770285956013004</v>
+        <v>2.26129914762963</v>
       </c>
       <c r="Y82" s="36">
-        <v>0.22652245282073</v>
+        <v>0.66794755883479995</v>
       </c>
       <c r="Z82" s="36">
-        <v>1.59894589510796</v>
+        <v>1.72474123326086</v>
       </c>
       <c r="AA82" s="36">
-        <v>1.29572495068106</v>
+        <v>1.75212825265987</v>
       </c>
       <c r="AB82" s="36">
-        <v>1.3315023849321399</v>
+        <v>1.0651854351138199</v>
       </c>
       <c r="AC82" s="36">
-        <v>0.87028956891631004</v>
+        <v>-7.1814426010400001E-2</v>
       </c>
       <c r="AD82" s="36">
-        <v>1.0638008617309</v>
+        <v>0.48927764887012998</v>
       </c>
       <c r="AE82" s="36">
-        <v>1.5890364126913901</v>
+        <v>1.14426358609457</v>
       </c>
       <c r="AF82" s="36">
-        <v>1.5033596889210501</v>
+        <v>1.16448817935348</v>
       </c>
       <c r="AG82" s="36">
-        <v>-2.9546358338753</v>
+        <v>-3.1769704743329998</v>
       </c>
       <c r="AH82" s="36">
-        <v>2.3965820155898099</v>
+        <v>2.1681001319605002</v>
       </c>
       <c r="AI82" s="36">
-        <v>2.0040474229452099</v>
+        <v>1.78427145800757</v>
       </c>
       <c r="AJ82" s="36">
-        <v>1.1411375644500199</v>
+        <v>1.0730253179191001</v>
       </c>
       <c r="AK82" s="36">
-        <v>2.1413602967126799</v>
+        <v>1.8650407907334201</v>
       </c>
       <c r="AL82" s="36">
-        <v>2.29464697284034</v>
+        <v>1.9929699713584901</v>
       </c>
       <c r="AM82" s="36">
-        <v>2.4190519019093699</v>
+        <v>2.1097204737603499</v>
       </c>
       <c r="AN82" s="36">
-        <v>2.6003762763944298</v>
+        <v>2.2677486887826199</v>
       </c>
       <c r="AO82" s="36">
-        <v>2.7029868261237802</v>
+        <v>2.3657238912920402</v>
       </c>
       <c r="AP82" s="37">
-        <v>2.4314840244827698</v>
+        <v>2.1200806961551901</v>
       </c>
     </row>
     <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C83" s="39">
         <v>1.3348063178713501</v>
       </c>
       <c r="D83" s="39">
-        <v>0.54226671512001001</v>
+        <v>0.54226671511996005</v>
       </c>
       <c r="E83" s="39">
-        <v>1.5860815607107099</v>
+        <v>1.5860815607108101</v>
       </c>
       <c r="F83" s="39">
         <v>1.28586799862124</v>
       </c>
       <c r="G83" s="39">
-        <v>2.7142292429133801</v>
+        <v>2.7142292429133601</v>
       </c>
       <c r="H83" s="39">
         <v>2.4143282259044598</v>
@@ -11802,28 +11810,28 @@
         <v>2.8435904318642899</v>
       </c>
       <c r="K83" s="39">
-        <v>1.5447014765204601</v>
+        <v>1.5447014765204199</v>
       </c>
       <c r="L83" s="39">
         <v>2.4175607835645798</v>
       </c>
       <c r="M83" s="39">
-        <v>3.3423584490171598</v>
+        <v>3.3423584490171798</v>
       </c>
       <c r="N83" s="39">
-        <v>1.15026104139173</v>
+        <v>1.15026104139176</v>
       </c>
       <c r="O83" s="39">
-        <v>1.58253283457364</v>
+        <v>1.5825328345735801</v>
       </c>
       <c r="P83" s="39">
-        <v>2.4419918803930201</v>
+        <v>2.4419918803930498</v>
       </c>
       <c r="Q83" s="39">
         <v>3.73061194765737</v>
       </c>
       <c r="R83" s="39">
-        <v>3.5563657866617602</v>
+        <v>3.5563657866617202</v>
       </c>
       <c r="S83" s="39">
         <v>4.0540507741108396</v>
@@ -11832,7 +11840,7 @@
         <v>4.2801331454408</v>
       </c>
       <c r="U83" s="39">
-        <v>1.7539083642861499</v>
+        <v>1.7539083642861799</v>
       </c>
       <c r="V83" s="39">
         <v>-0.95434220293140004</v>
@@ -11844,10 +11852,10 @@
         <v>3.1620945476923898</v>
       </c>
       <c r="Y83" s="39">
-        <v>2.3371956192966801</v>
+        <v>2.3371956192966699</v>
       </c>
       <c r="Z83" s="39">
-        <v>2.5440095151727302</v>
+        <v>2.5440095151727702</v>
       </c>
       <c r="AA83" s="39">
         <v>2.7304484736839498</v>
@@ -11859,10 +11867,10 @@
         <v>2.5999586722898602</v>
       </c>
       <c r="AD83" s="39">
-        <v>3.1956240961078399</v>
+        <v>3.1956240961078501</v>
       </c>
       <c r="AE83" s="39">
-        <v>3.0301084342636</v>
+        <v>3.0301084342635698</v>
       </c>
       <c r="AF83" s="39">
         <v>2.2563782520363702</v>
@@ -11901,133 +11909,133 @@
     <row r="84" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84" s="42">
-        <v>-1.4940005580700999</v>
+        <v>-1.6075336979587</v>
       </c>
       <c r="D84" s="42">
-        <v>-2.0777320037061</v>
+        <v>-2.1536281641952</v>
       </c>
       <c r="E84" s="42">
-        <v>-3.3567243804881999</v>
+        <v>-3.1566871511343</v>
       </c>
       <c r="F84" s="42">
-        <v>-0.98698367154690003</v>
+        <v>-1.0967157857447001</v>
       </c>
       <c r="G84" s="42">
-        <v>-0.66436465016229995</v>
+        <v>-1.5496934190131</v>
       </c>
       <c r="H84" s="42">
-        <v>3.2672180153366499</v>
+        <v>3.0925114549774801</v>
       </c>
       <c r="I84" s="42">
-        <v>1.8648096038825099</v>
+        <v>1.9534682667347301</v>
       </c>
       <c r="J84" s="42">
-        <v>0.81562131660741999</v>
+        <v>0.82922299673416</v>
       </c>
       <c r="K84" s="42">
-        <v>1.2032945442790299</v>
+        <v>0.96276650586794998</v>
       </c>
       <c r="L84" s="42">
-        <v>1.2626489760325901</v>
+        <v>1.2964579767503801</v>
       </c>
       <c r="M84" s="42">
-        <v>1.1277150937469</v>
+        <v>1.1215466276319299</v>
       </c>
       <c r="N84" s="42">
-        <v>4.7304574862745001</v>
+        <v>4.5918208509419003</v>
       </c>
       <c r="O84" s="42">
-        <v>1.2014045414148899</v>
+        <v>1.2135661892446199</v>
       </c>
       <c r="P84" s="42">
-        <v>2.2952031890711901</v>
+        <v>2.37941896219245</v>
       </c>
       <c r="Q84" s="42">
-        <v>3.5565677239954598</v>
+        <v>3.5701794129772502</v>
       </c>
       <c r="R84" s="42">
-        <v>3.9362301587939199</v>
+        <v>3.9345045691887299</v>
       </c>
       <c r="S84" s="42">
-        <v>3.3342794276392498</v>
+        <v>3.4009348748814299</v>
       </c>
       <c r="T84" s="42">
-        <v>3.5856374720723498</v>
+        <v>3.6610587350916899</v>
       </c>
       <c r="U84" s="42">
-        <v>3.33398766251727</v>
+        <v>3.3904360679746102</v>
       </c>
       <c r="V84" s="42">
-        <v>-0.18379294573550001</v>
+        <v>0.19153843769237</v>
       </c>
       <c r="W84" s="42">
-        <v>3.40276359140088</v>
+        <v>3.62593671881196</v>
       </c>
       <c r="X84" s="42">
-        <v>1.2337282383460899</v>
+        <v>1.3043939927166299</v>
       </c>
       <c r="Y84" s="42">
-        <v>-2.8862560327584998</v>
+        <v>-2.3849721639677002</v>
       </c>
       <c r="Z84" s="42">
-        <v>2.86176993220487</v>
+        <v>2.7917956733814999</v>
       </c>
       <c r="AA84" s="42">
-        <v>3.3634781446134401</v>
+        <v>3.2451842091179901</v>
       </c>
       <c r="AB84" s="42">
-        <v>2.66266846247684</v>
+        <v>2.4902284618981398</v>
       </c>
       <c r="AC84" s="42">
-        <v>1.2994331474479099</v>
+        <v>1.2641514264224001</v>
       </c>
       <c r="AD84" s="42">
-        <v>1.9967299879934799</v>
+        <v>1.9060985042566501</v>
       </c>
       <c r="AE84" s="42">
-        <v>1.2881394574662199</v>
+        <v>1.27074644617886</v>
       </c>
       <c r="AF84" s="42">
-        <v>1.8174903186918101</v>
+        <v>1.63031588802627</v>
       </c>
       <c r="AG84" s="42">
-        <v>-2.0576939573108999</v>
+        <v>-2.2489160715111001</v>
       </c>
       <c r="AH84" s="42">
-        <v>1.6635871383010401</v>
+        <v>1.6645132284128299</v>
       </c>
       <c r="AI84" s="42">
-        <v>1.2291076966246499</v>
+        <v>1.19652527301774</v>
       </c>
       <c r="AJ84" s="42">
-        <v>1.97586931355617</v>
+        <v>1.93397853052706</v>
       </c>
       <c r="AK84" s="42">
-        <v>2.8330826249443501</v>
+        <v>2.7520107228773401</v>
       </c>
       <c r="AL84" s="42">
-        <v>2.8793707778274298</v>
+        <v>2.8218811371961001</v>
       </c>
       <c r="AM84" s="42">
-        <v>2.8493464815328799</v>
+        <v>2.8047412842666399</v>
       </c>
       <c r="AN84" s="42">
-        <v>3.2649929734520402</v>
+        <v>3.2144325715337798</v>
       </c>
       <c r="AO84" s="42">
-        <v>3.2914429909401299</v>
+        <v>3.2481572879783198</v>
       </c>
       <c r="AP84" s="43">
-        <v>3.0234361917736501</v>
+        <v>2.9680175908413502</v>
       </c>
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C85" s="36">
         <v>8.0383400403637495</v>
@@ -12153,259 +12161,259 @@
     <row r="86" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C86" s="36">
-        <v>-0.70161060281230003</v>
+        <v>-0.65756712950090002</v>
       </c>
       <c r="D86" s="36">
-        <v>-1.1420988437935</v>
+        <v>-1.1145878804905001</v>
       </c>
       <c r="E86" s="36">
-        <v>-1.1134915629549</v>
+        <v>-1.1246481597283</v>
       </c>
       <c r="F86" s="36">
-        <v>-1.3267311565377</v>
+        <v>-1.311709759852</v>
       </c>
       <c r="G86" s="36">
-        <v>-0.1854525908985</v>
+        <v>-2.1263502671999999E-3</v>
       </c>
       <c r="H86" s="36">
-        <v>0.78363624547511002</v>
+        <v>0.78841424595915</v>
       </c>
       <c r="I86" s="36">
-        <v>3.0900290105526</v>
+        <v>3.0854024488107301</v>
       </c>
       <c r="J86" s="36">
-        <v>1.0648444105909201</v>
+        <v>1.0659920020992499</v>
       </c>
       <c r="K86" s="36">
-        <v>2.8183553716848002</v>
+        <v>2.8880208472039901</v>
       </c>
       <c r="L86" s="36">
-        <v>1.00553375081584</v>
+        <v>0.99808774974354997</v>
       </c>
       <c r="M86" s="36">
-        <v>1.5429053564294399</v>
+        <v>1.5532635795563201</v>
       </c>
       <c r="N86" s="36">
-        <v>1.75638692322637</v>
+        <v>1.7584479668962001</v>
       </c>
       <c r="O86" s="36">
-        <v>3.4055763840101201</v>
+        <v>3.4376698125636098</v>
       </c>
       <c r="P86" s="36">
-        <v>2.86966605866942</v>
+        <v>2.8685929533285299</v>
       </c>
       <c r="Q86" s="36">
-        <v>3.4267156688231402</v>
+        <v>3.4332908336766201</v>
       </c>
       <c r="R86" s="36">
-        <v>3.1124240733775501</v>
+        <v>3.11592908948721</v>
       </c>
       <c r="S86" s="36">
-        <v>3.2542350246901299</v>
+        <v>3.2546215846313702</v>
       </c>
       <c r="T86" s="36">
-        <v>3.5422937747661698</v>
+        <v>3.5422083126783601</v>
       </c>
       <c r="U86" s="36">
-        <v>3.2062544733943499</v>
+        <v>3.20965120307442</v>
       </c>
       <c r="V86" s="36">
-        <v>2.2419330753390199</v>
+        <v>2.2119810898427099</v>
       </c>
       <c r="W86" s="36">
-        <v>3.90014441362095</v>
+        <v>3.8754251745056401</v>
       </c>
       <c r="X86" s="36">
-        <v>1.14428029572859</v>
+        <v>1.14093511749913</v>
       </c>
       <c r="Y86" s="36">
-        <v>1.66998354072543</v>
+        <v>1.64495000635061</v>
       </c>
       <c r="Z86" s="36">
-        <v>1.73593787852124</v>
+        <v>1.7455333089296801</v>
       </c>
       <c r="AA86" s="36">
-        <v>1.9820489825179699</v>
+        <v>1.99984577464278</v>
       </c>
       <c r="AB86" s="36">
-        <v>1.1353913215040501</v>
+        <v>1.1642546165207901</v>
       </c>
       <c r="AC86" s="36">
-        <v>-0.34552992078619998</v>
+        <v>-0.34970177636249999</v>
       </c>
       <c r="AD86" s="36">
-        <v>0.15418135735707</v>
+        <v>0.16006350956842999</v>
       </c>
       <c r="AE86" s="36">
-        <v>1.07440377543055</v>
+        <v>1.0857399006200801</v>
       </c>
       <c r="AF86" s="36">
-        <v>1.2595964106281601</v>
+        <v>1.3089039878592099</v>
       </c>
       <c r="AG86" s="36">
-        <v>-2.9359945453537</v>
+        <v>-2.8904259229665001</v>
       </c>
       <c r="AH86" s="36">
-        <v>1.9749738772005401</v>
+        <v>1.9877413154219701</v>
       </c>
       <c r="AI86" s="36">
-        <v>2.13438107638027</v>
+        <v>2.1633617718960201</v>
       </c>
       <c r="AJ86" s="36">
-        <v>1.41266166052777</v>
+        <v>1.4232750083366701</v>
       </c>
       <c r="AK86" s="36">
-        <v>1.93998077783387</v>
+        <v>1.9565243836584301</v>
       </c>
       <c r="AL86" s="36">
-        <v>2.10507168225522</v>
+        <v>2.1170850282198299</v>
       </c>
       <c r="AM86" s="36">
-        <v>2.2677204260761701</v>
+        <v>2.2790237875494501</v>
       </c>
       <c r="AN86" s="36">
-        <v>2.32733858359143</v>
+        <v>2.3354572606129298</v>
       </c>
       <c r="AO86" s="36">
-        <v>2.4389124243104301</v>
+        <v>2.4462274905336301</v>
       </c>
       <c r="AP86" s="37">
-        <v>2.2156547859947899</v>
+        <v>2.22671898228919</v>
       </c>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C87" s="36">
-        <v>4.8744625531882697</v>
+        <v>4.7704789834028398</v>
       </c>
       <c r="D87" s="36">
-        <v>3.1763982829449899</v>
+        <v>3.3904107497935199</v>
       </c>
       <c r="E87" s="36">
-        <v>1.35444092085734</v>
+        <v>1.3578053641647001</v>
       </c>
       <c r="F87" s="36">
-        <v>0.59442099767918999</v>
+        <v>0.62024565338705995</v>
       </c>
       <c r="G87" s="36">
-        <v>1.31690061050094</v>
+        <v>1.3486548276692401</v>
       </c>
       <c r="H87" s="36">
-        <v>3.40137137775822</v>
+        <v>3.4102304761465998</v>
       </c>
       <c r="I87" s="36">
-        <v>4.3917544232375896</v>
+        <v>4.3786499157251901</v>
       </c>
       <c r="J87" s="36">
-        <v>1.81409868965055</v>
+        <v>1.8582226461017799</v>
       </c>
       <c r="K87" s="36">
-        <v>-1.0144604948583</v>
+        <v>-0.99323758610599999</v>
       </c>
       <c r="L87" s="36">
-        <v>2.8746975164334301</v>
+        <v>2.8373997820283701</v>
       </c>
       <c r="M87" s="36">
-        <v>2.9574638170993</v>
+        <v>2.9317210901278199</v>
       </c>
       <c r="N87" s="36">
-        <v>2.3932234862390098</v>
+        <v>2.3916120132987002</v>
       </c>
       <c r="O87" s="36">
-        <v>2.9643744621500301</v>
+        <v>2.9571311267807001</v>
       </c>
       <c r="P87" s="36">
-        <v>5.20362431101388</v>
+        <v>5.1725830944817401</v>
       </c>
       <c r="Q87" s="36">
-        <v>5.1318570592198096</v>
+        <v>5.1370589603405099</v>
       </c>
       <c r="R87" s="36">
-        <v>5.45314890659398</v>
+        <v>5.4188161222830802</v>
       </c>
       <c r="S87" s="36">
-        <v>5.7322229938626901</v>
+        <v>5.70209320915703</v>
       </c>
       <c r="T87" s="36">
-        <v>6.6386556834976496</v>
+        <v>6.6455339734467902</v>
       </c>
       <c r="U87" s="36">
-        <v>3.0002838677581698</v>
+        <v>3.0280215776913799</v>
       </c>
       <c r="V87" s="36">
-        <v>3.3325020670223799</v>
+        <v>3.3671132096538701</v>
       </c>
       <c r="W87" s="36">
-        <v>6.1456326278263296</v>
+        <v>6.1506247952104101</v>
       </c>
       <c r="X87" s="36">
-        <v>4.3249904987455396</v>
+        <v>4.2993061400924404</v>
       </c>
       <c r="Y87" s="36">
-        <v>3.25383099147767</v>
+        <v>3.2393635120959399</v>
       </c>
       <c r="Z87" s="36">
-        <v>3.7925859438860998</v>
+        <v>3.76669043970865</v>
       </c>
       <c r="AA87" s="36">
-        <v>4.6355842381994696</v>
+        <v>4.5930076365478003</v>
       </c>
       <c r="AB87" s="36">
-        <v>4.4000301469969303</v>
+        <v>4.3666027194440504</v>
       </c>
       <c r="AC87" s="36">
-        <v>5.6851354901960498</v>
+        <v>5.6629105383169396</v>
       </c>
       <c r="AD87" s="36">
-        <v>4.6517114296252702</v>
+        <v>4.6326265201204002</v>
       </c>
       <c r="AE87" s="36">
-        <v>4.3547986434803203</v>
+        <v>4.32364559669554</v>
       </c>
       <c r="AF87" s="36">
-        <v>2.92467107876928</v>
+        <v>2.8793040957698302</v>
       </c>
       <c r="AG87" s="36">
-        <v>-4.1640335536783004</v>
+        <v>-4.2426971863112</v>
       </c>
       <c r="AH87" s="36">
-        <v>5.4360584072126903</v>
+        <v>5.4394984526591399</v>
       </c>
       <c r="AI87" s="36">
-        <v>4.5911205385098599</v>
+        <v>4.5957076287756902</v>
       </c>
       <c r="AJ87" s="36">
-        <v>3.9124452266097598</v>
+        <v>3.91983387383195</v>
       </c>
       <c r="AK87" s="36">
-        <v>4.4153072805101798</v>
+        <v>4.4232763839976901</v>
       </c>
       <c r="AL87" s="36">
-        <v>4.5042435753022101</v>
+        <v>4.5114950333172503</v>
       </c>
       <c r="AM87" s="36">
-        <v>4.5357724483180402</v>
+        <v>4.5423626561827302</v>
       </c>
       <c r="AN87" s="36">
-        <v>4.5850067501295699</v>
+        <v>4.59070916426609</v>
       </c>
       <c r="AO87" s="36">
-        <v>4.6357499555355703</v>
+        <v>4.6406651655945996</v>
       </c>
       <c r="AP87" s="37">
-        <v>4.5351892857710796</v>
+        <v>4.5416757228196696</v>
       </c>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88" s="36">
         <v>-1.8861517496910001</v>
@@ -12531,259 +12539,259 @@
     <row r="89" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" s="36">
-        <v>0.55824471842189005</v>
+        <v>0.89761902271019001</v>
       </c>
       <c r="D89" s="36">
-        <v>2.8339941560920199</v>
+        <v>3.2631140894762898</v>
       </c>
       <c r="E89" s="36">
-        <v>7.9549331857439995E-2</v>
+        <v>0.26741504147338002</v>
       </c>
       <c r="F89" s="36">
-        <v>2.6487725384770302</v>
+        <v>2.66976575841089</v>
       </c>
       <c r="G89" s="36">
-        <v>2.1102525527877001</v>
+        <v>2.0646600519615501</v>
       </c>
       <c r="H89" s="36">
-        <v>2.6429554057851199</v>
+        <v>2.5449343207913402</v>
       </c>
       <c r="I89" s="36">
-        <v>3.9405720994074298</v>
+        <v>3.9458241587765701</v>
       </c>
       <c r="J89" s="36">
-        <v>4.4256104063977704</v>
+        <v>4.6215216548718097</v>
       </c>
       <c r="K89" s="36">
-        <v>1.53719244549795</v>
+        <v>1.6422649925716499</v>
       </c>
       <c r="L89" s="36">
-        <v>3.0062071229504701</v>
+        <v>3.09834627568471</v>
       </c>
       <c r="M89" s="36">
-        <v>5.6093625464086196</v>
+        <v>5.6841784168979101</v>
       </c>
       <c r="N89" s="36">
-        <v>2.9487573603366402</v>
+        <v>2.9217074574414701</v>
       </c>
       <c r="O89" s="36">
-        <v>4.4351583971397899</v>
+        <v>4.4269218674525801</v>
       </c>
       <c r="P89" s="36">
-        <v>6.6284083393129301</v>
+        <v>6.7229026930648104</v>
       </c>
       <c r="Q89" s="36">
-        <v>7.9040958805265404</v>
+        <v>7.8677575497036099</v>
       </c>
       <c r="R89" s="36">
-        <v>6.8409472201784904</v>
+        <v>6.8941735284883103</v>
       </c>
       <c r="S89" s="36">
-        <v>8.1256040075076292</v>
+        <v>8.1459456023698493</v>
       </c>
       <c r="T89" s="36">
-        <v>8.8566703422478295</v>
+        <v>8.8790659152188596</v>
       </c>
       <c r="U89" s="36">
-        <v>5.7649290260367003</v>
+        <v>5.6923875121623801</v>
       </c>
       <c r="V89" s="36">
-        <v>1.79677985182032</v>
+        <v>1.89041186450758</v>
       </c>
       <c r="W89" s="36">
-        <v>7.3881687175027704</v>
+        <v>7.5441949076461299</v>
       </c>
       <c r="X89" s="36">
-        <v>6.4158519953674302</v>
+        <v>6.4478228276423399</v>
       </c>
       <c r="Y89" s="36">
-        <v>4.9123252431188202</v>
+        <v>4.9550842839309901</v>
       </c>
       <c r="Z89" s="36">
-        <v>4.6264755804499798</v>
+        <v>4.7009336135044597</v>
       </c>
       <c r="AA89" s="36">
-        <v>3.7943910823677398</v>
+        <v>3.8206743151873601</v>
       </c>
       <c r="AB89" s="36">
-        <v>3.3348830070468698</v>
+        <v>3.3466188851638798</v>
       </c>
       <c r="AC89" s="36">
-        <v>3.3725577716833501</v>
+        <v>3.37592468838398</v>
       </c>
       <c r="AD89" s="36">
-        <v>4.3051529597788099</v>
+        <v>4.2535371901574601</v>
       </c>
       <c r="AE89" s="36">
-        <v>4.1416520252749196</v>
+        <v>4.1291798884921498</v>
       </c>
       <c r="AF89" s="36">
-        <v>3.3945582551619502</v>
+        <v>3.4099738445131602</v>
       </c>
       <c r="AG89" s="36">
-        <v>-1.1881590917614999</v>
+        <v>-1.0703488297459001</v>
       </c>
       <c r="AH89" s="36">
-        <v>7.3448201537885902</v>
+        <v>7.3377422196742002</v>
       </c>
       <c r="AI89" s="36">
-        <v>2.8449534602315198</v>
+        <v>2.8102845684831399</v>
       </c>
       <c r="AJ89" s="36">
-        <v>3.58418414793009</v>
+        <v>3.60317889463531</v>
       </c>
       <c r="AK89" s="36">
-        <v>3.4725598098869499</v>
+        <v>3.45434633057191</v>
       </c>
       <c r="AL89" s="36">
-        <v>3.1945420902357302</v>
+        <v>3.1742437960479202</v>
       </c>
       <c r="AM89" s="36">
-        <v>3.15940711337606</v>
+        <v>3.1422142706196898</v>
       </c>
       <c r="AN89" s="36">
-        <v>2.9328386328940002</v>
+        <v>2.9162230256074402</v>
       </c>
       <c r="AO89" s="36">
-        <v>2.8490817535902702</v>
+        <v>2.8328358605425299</v>
       </c>
       <c r="AP89" s="37">
-        <v>3.1214534236687199</v>
+        <v>3.1037419973200202</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90" s="39">
-        <v>2.49326028244622</v>
+        <v>2.4187770722380701</v>
       </c>
       <c r="D90" s="39">
-        <v>0.89152783884788001</v>
+        <v>0.78828096345103005</v>
       </c>
       <c r="E90" s="39">
-        <v>1.6496633601484201</v>
+        <v>1.5895560204194099</v>
       </c>
       <c r="F90" s="39">
-        <v>0.53390634465408005</v>
+        <v>0.56049761119663999</v>
       </c>
       <c r="G90" s="39">
-        <v>2.5225747221067301</v>
+        <v>2.5490797593929</v>
       </c>
       <c r="H90" s="39">
-        <v>2.1836131948370801</v>
+        <v>2.2377111465768</v>
       </c>
       <c r="I90" s="39">
-        <v>2.3411579558873399</v>
+        <v>2.37432620381077</v>
       </c>
       <c r="J90" s="39">
-        <v>2.8532875525939101</v>
+        <v>2.8111288239117398</v>
       </c>
       <c r="K90" s="39">
-        <v>2.1907428616100102</v>
+        <v>2.1669028274419602</v>
       </c>
       <c r="L90" s="39">
-        <v>2.65721945276518</v>
+        <v>2.6513241674583399</v>
       </c>
       <c r="M90" s="39">
-        <v>3.53859705858244</v>
+        <v>3.55103505244286</v>
       </c>
       <c r="N90" s="39">
-        <v>0.85702829992888996</v>
+        <v>0.90044568356057997</v>
       </c>
       <c r="O90" s="39">
-        <v>0.85210591290054005</v>
+        <v>0.90363584760334004</v>
       </c>
       <c r="P90" s="39">
-        <v>1.77142317165324</v>
+        <v>1.7978686092085601</v>
       </c>
       <c r="Q90" s="39">
-        <v>2.8092930873467501</v>
+        <v>2.88964865593644</v>
       </c>
       <c r="R90" s="39">
-        <v>2.2276035301224102</v>
+        <v>2.27285128117816</v>
       </c>
       <c r="S90" s="39">
-        <v>2.4310949630408798</v>
+        <v>2.5014931827481202</v>
       </c>
       <c r="T90" s="39">
-        <v>1.9009343299975401</v>
+        <v>1.97425490772277</v>
       </c>
       <c r="U90" s="39">
-        <v>-0.141152112016</v>
+        <v>-2.9806771901099999E-2</v>
       </c>
       <c r="V90" s="39">
-        <v>-3.9614369197736998</v>
+        <v>-3.9538170315249999</v>
       </c>
       <c r="W90" s="39">
-        <v>2.3571060029271398</v>
+        <v>2.3267634206582501</v>
       </c>
       <c r="X90" s="39">
-        <v>1.57136771383941</v>
+        <v>1.6201474526651201</v>
       </c>
       <c r="Y90" s="39">
-        <v>0.83896474206615002</v>
+        <v>0.86926106565048</v>
       </c>
       <c r="Z90" s="39">
-        <v>0.88460488443005003</v>
+        <v>0.89633947039235995</v>
       </c>
       <c r="AA90" s="39">
-        <v>1.5337716260760901</v>
+        <v>1.5668554528786001</v>
       </c>
       <c r="AB90" s="39">
-        <v>1.95414634029288</v>
+        <v>1.97874577193788</v>
       </c>
       <c r="AC90" s="39">
-        <v>1.3121365293776299</v>
+        <v>1.3414949479199301</v>
       </c>
       <c r="AD90" s="39">
-        <v>1.80712822158135</v>
+        <v>1.88144228635836</v>
       </c>
       <c r="AE90" s="39">
-        <v>1.84309440027005</v>
+        <v>1.8932279445851099</v>
       </c>
       <c r="AF90" s="39">
-        <v>1.2646039053259699</v>
+        <v>1.2986053865430001</v>
       </c>
       <c r="AG90" s="39">
-        <v>-4.5876931891146997</v>
+        <v>-4.6006739501391998</v>
       </c>
       <c r="AH90" s="39">
-        <v>5.2593128543674199</v>
+        <v>5.2924287169516298</v>
       </c>
       <c r="AI90" s="39">
-        <v>2.6611278704511698</v>
+        <v>2.6687149464619502</v>
       </c>
       <c r="AJ90" s="39">
-        <v>0.85334935421474001</v>
+        <v>0.85696905605068996</v>
       </c>
       <c r="AK90" s="39">
-        <v>1.28038623673395</v>
+        <v>1.33032541644751</v>
       </c>
       <c r="AL90" s="39">
-        <v>1.75733844035901</v>
+        <v>1.7962969730665199</v>
       </c>
       <c r="AM90" s="39">
-        <v>1.76811131529257</v>
+        <v>1.8017817132902101</v>
       </c>
       <c r="AN90" s="39">
-        <v>1.69119822381892</v>
+        <v>1.72105208017084</v>
       </c>
       <c r="AO90" s="39">
-        <v>1.67003249602126</v>
+        <v>1.6986899142048899</v>
       </c>
       <c r="AP90" s="40">
-        <v>1.6332528948999301</v>
+        <v>1.66947936928208</v>
       </c>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C91" s="42">
         <v>-1.3018650411507999</v>
@@ -12801,10 +12809,10 @@
         <v>-0.75606706144460001</v>
       </c>
       <c r="H91" s="42">
-        <v>3.3744523367361401</v>
+        <v>3.3744523367361801</v>
       </c>
       <c r="I91" s="42">
-        <v>2.5762314415313301</v>
+        <v>2.5762314415312799</v>
       </c>
       <c r="J91" s="42">
         <v>1.1468831901658501</v>
@@ -12816,7 +12824,7 @@
         <v>1.1784063257703801</v>
       </c>
       <c r="M91" s="42">
-        <v>0.96031481221143999</v>
+        <v>0.96031481221142001</v>
       </c>
       <c r="N91" s="42">
         <v>3.6717454010238799</v>
@@ -12834,7 +12842,7 @@
         <v>4.8271037570399402</v>
       </c>
       <c r="S91" s="42">
-        <v>3.94642639123275</v>
+        <v>3.94642639123271</v>
       </c>
       <c r="T91" s="42">
         <v>4.5725109759436702</v>
@@ -12885,22 +12893,22 @@
         <v>1.1780948046864499</v>
       </c>
       <c r="AJ91" s="42">
-        <v>1.9541964068022499</v>
+        <v>1.9541964068022399</v>
       </c>
       <c r="AK91" s="42">
         <v>2.7552347411430702</v>
       </c>
       <c r="AL91" s="42">
-        <v>2.6767432031882201</v>
+        <v>2.6767432031882099</v>
       </c>
       <c r="AM91" s="42">
-        <v>2.7032886931504101</v>
+        <v>2.7032886931504398</v>
       </c>
       <c r="AN91" s="42">
         <v>3.0447725671164698</v>
       </c>
       <c r="AO91" s="42">
-        <v>3.1330011704100298</v>
+        <v>3.13300117041004</v>
       </c>
       <c r="AP91" s="43">
         <v>2.8624353566824201</v>
@@ -12909,7 +12917,7 @@
     <row r="92" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C92" s="36">
         <v>2.8288940892665799</v>
@@ -13035,7 +13043,7 @@
     <row r="93" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C93" s="36">
         <v>4.5527557808443904</v>
@@ -13161,133 +13169,133 @@
     <row r="94" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C94" s="36">
-        <v>2.2757765113428601</v>
+        <v>2.3409350934275599</v>
       </c>
       <c r="D94" s="36">
-        <v>1.82756235027313</v>
+        <v>1.9641011689613901</v>
       </c>
       <c r="E94" s="36">
-        <v>4.6024368843416301</v>
+        <v>4.5648871171750596</v>
       </c>
       <c r="F94" s="36">
-        <v>5.5307483812132903</v>
+        <v>5.5310437009765403</v>
       </c>
       <c r="G94" s="36">
-        <v>4.4406735090965999</v>
+        <v>4.7211949343712796</v>
       </c>
       <c r="H94" s="36">
-        <v>3.8968468207351599</v>
+        <v>4.2265180040577102</v>
       </c>
       <c r="I94" s="36">
-        <v>4.38865041417169</v>
+        <v>4.6405873533091899</v>
       </c>
       <c r="J94" s="36">
-        <v>4.5116330092819901</v>
+        <v>4.8328312031604703</v>
       </c>
       <c r="K94" s="36">
-        <v>-0.19120531698609999</v>
+        <v>-0.45201847637429998</v>
       </c>
       <c r="L94" s="36">
-        <v>3.66429514048848</v>
+        <v>3.62601109244389</v>
       </c>
       <c r="M94" s="36">
-        <v>4.7291292210634301</v>
+        <v>4.6884577565023298</v>
       </c>
       <c r="N94" s="36">
-        <v>-0.85600223017949995</v>
+        <v>-1.0006365353536</v>
       </c>
       <c r="O94" s="36">
-        <v>2.1832378846761702</v>
+        <v>2.2199598029817298</v>
       </c>
       <c r="P94" s="36">
-        <v>2.9007830401111501</v>
+        <v>2.7718062662456502</v>
       </c>
       <c r="Q94" s="36">
-        <v>5.2164901926671199</v>
+        <v>5.2837859931638604</v>
       </c>
       <c r="R94" s="36">
-        <v>4.9401598588411098</v>
+        <v>5.0308133745565602</v>
       </c>
       <c r="S94" s="36">
-        <v>6.4637566787922003</v>
+        <v>6.7192459815533603</v>
       </c>
       <c r="T94" s="36">
-        <v>5.7389200417182602</v>
+        <v>5.7754295053923697</v>
       </c>
       <c r="U94" s="36">
-        <v>0.83883227237952995</v>
+        <v>0.60153230455661</v>
       </c>
       <c r="V94" s="36">
-        <v>-1.2382727297192</v>
+        <v>-1.3466585039154999</v>
       </c>
       <c r="W94" s="36">
-        <v>8.2852305176840204</v>
+        <v>8.7937529417582603</v>
       </c>
       <c r="X94" s="36">
-        <v>3.2203861927712598</v>
+        <v>3.4024124365209798</v>
       </c>
       <c r="Y94" s="36">
-        <v>2.3531047778175398</v>
+        <v>2.3439152182035898</v>
       </c>
       <c r="Z94" s="36">
-        <v>3.0608136410205198</v>
+        <v>3.01105792839927</v>
       </c>
       <c r="AA94" s="36">
-        <v>3.1130948705777102</v>
+        <v>3.1820790409964301</v>
       </c>
       <c r="AB94" s="36">
-        <v>2.0771844430491901</v>
+        <v>2.20339278462896</v>
       </c>
       <c r="AC94" s="36">
-        <v>2.3126709010463902</v>
+        <v>2.3652584877371901</v>
       </c>
       <c r="AD94" s="36">
-        <v>2.6823648614506101</v>
+        <v>2.7025374673573199</v>
       </c>
       <c r="AE94" s="36">
-        <v>2.5317016852213201</v>
+        <v>2.67434355046238</v>
       </c>
       <c r="AF94" s="36">
-        <v>1.0851531090667701</v>
+        <v>1.0680565828424999</v>
       </c>
       <c r="AG94" s="36">
-        <v>-5.7412449935156999</v>
+        <v>-5.8061453073768003</v>
       </c>
       <c r="AH94" s="36">
-        <v>7.3705799822972002</v>
+        <v>7.7256535419960004</v>
       </c>
       <c r="AI94" s="36">
-        <v>4.7153108358196203</v>
+        <v>4.8087489750830796</v>
       </c>
       <c r="AJ94" s="36">
-        <v>2.7607899199342998</v>
+        <v>2.8069547080677499</v>
       </c>
       <c r="AK94" s="36">
-        <v>4.0761086070645796</v>
+        <v>4.1604272247151499</v>
       </c>
       <c r="AL94" s="36">
-        <v>2.2794765243050699</v>
+        <v>2.27750196381034</v>
       </c>
       <c r="AM94" s="36">
-        <v>4.2681307108012998</v>
+        <v>4.4379141314288697</v>
       </c>
       <c r="AN94" s="36">
-        <v>2.2392531687876001</v>
+        <v>2.2624462392791398</v>
       </c>
       <c r="AO94" s="36">
-        <v>2.26604320640224</v>
+        <v>2.2888510393513899</v>
       </c>
       <c r="AP94" s="37">
-        <v>3.0215430087825701</v>
+        <v>3.0806400178068598</v>
       </c>
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C95" s="36">
         <v>0.59761985163108999</v>
@@ -13299,7 +13307,7 @@
         <v>-3.4898913702085999</v>
       </c>
       <c r="F95" s="36">
-        <v>1.7509969686553</v>
+        <v>1.7509969686553299</v>
       </c>
       <c r="G95" s="36">
         <v>-1.7278102425041</v>
@@ -13308,7 +13316,7 @@
         <v>4.0112506156708898</v>
       </c>
       <c r="I95" s="36">
-        <v>3.63734341156932</v>
+        <v>3.6373434115693302</v>
       </c>
       <c r="J95" s="36">
         <v>1.4864073473263599</v>
@@ -13317,16 +13325,16 @@
         <v>-0.4915988719462</v>
       </c>
       <c r="L95" s="36">
-        <v>1.4742180434411001</v>
+        <v>1.47421804344114</v>
       </c>
       <c r="M95" s="36">
         <v>-2.8857161361599999E-2</v>
       </c>
       <c r="N95" s="36">
-        <v>2.86711147081478</v>
+        <v>2.86711147081482</v>
       </c>
       <c r="O95" s="36">
-        <v>0.39843559851359001</v>
+        <v>0.39843559851355997</v>
       </c>
       <c r="P95" s="36">
         <v>-0.24647653069690001</v>
@@ -13359,10 +13367,10 @@
         <v>1.60482139649361</v>
       </c>
       <c r="Z95" s="36">
-        <v>3.5237288303995302</v>
+        <v>3.5237288303995502</v>
       </c>
       <c r="AA95" s="36">
-        <v>3.5310086768456901</v>
+        <v>3.5310086768456599</v>
       </c>
       <c r="AB95" s="36">
         <v>2.8140906814646098</v>
@@ -13389,10 +13397,10 @@
         <v>2.3133293639984598</v>
       </c>
       <c r="AJ95" s="36">
-        <v>2.3972762727332899</v>
+        <v>2.3972762727333201</v>
       </c>
       <c r="AK95" s="36">
-        <v>3.03522836046174</v>
+        <v>3.0352283604617298</v>
       </c>
       <c r="AL95" s="36">
         <v>3.1577420155803702</v>
@@ -13413,7 +13421,7 @@
     <row r="96" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C96" s="39">
         <v>2.0096359222697502</v>
@@ -13539,253 +13547,253 @@
     <row r="97" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C97" s="42">
-        <v>-1.2272270439468</v>
+        <v>-1.1246833207706</v>
       </c>
       <c r="D97" s="42">
-        <v>0.93842585709897997</v>
+        <v>0.93944425230812001</v>
       </c>
       <c r="E97" s="42">
-        <v>-2.5383598790003998</v>
+        <v>-2.5130692548289999</v>
       </c>
       <c r="F97" s="42">
-        <v>-2.1989662780063002</v>
+        <v>-2.1605732420470001</v>
       </c>
       <c r="G97" s="42">
-        <v>-1.2737736286824</v>
+        <v>-1.2793836463532</v>
       </c>
       <c r="H97" s="42">
-        <v>-1.4306005316663</v>
+        <v>-1.3677227126791001</v>
       </c>
       <c r="I97" s="42">
-        <v>1.99053102893643</v>
+        <v>1.9868316405085</v>
       </c>
       <c r="J97" s="42">
-        <v>0.30081774036739001</v>
+        <v>0.33037226153512</v>
       </c>
       <c r="K97" s="42">
-        <v>0.35588098588243999</v>
+        <v>0.36208527426867998</v>
       </c>
       <c r="L97" s="42">
-        <v>-0.64643459861130004</v>
+        <v>-0.62357159931270001</v>
       </c>
       <c r="M97" s="42">
-        <v>1.4446041568693699</v>
+        <v>1.4602340595073999</v>
       </c>
       <c r="N97" s="42">
-        <v>2.98463334658428</v>
+        <v>2.97502878790992</v>
       </c>
       <c r="O97" s="42">
-        <v>3.53288641047493</v>
+        <v>3.50856729484744</v>
       </c>
       <c r="P97" s="42">
-        <v>4.01412479771398</v>
+        <v>3.9707039610756598</v>
       </c>
       <c r="Q97" s="42">
-        <v>4.7313084954069096</v>
+        <v>4.69166776093466</v>
       </c>
       <c r="R97" s="42">
-        <v>4.3437573582897802</v>
+        <v>4.2794063019656203</v>
       </c>
       <c r="S97" s="42">
-        <v>2.85931139047086</v>
+        <v>2.8368781957508702</v>
       </c>
       <c r="T97" s="42">
-        <v>3.9672250355786098</v>
+        <v>3.9567004479912402</v>
       </c>
       <c r="U97" s="42">
-        <v>2.68663548987477</v>
+        <v>2.6776163963274202</v>
       </c>
       <c r="V97" s="42">
-        <v>1.20300179913025</v>
+        <v>1.18348184342929</v>
       </c>
       <c r="W97" s="42">
-        <v>4.67507586540634</v>
+        <v>4.6200905113308304</v>
       </c>
       <c r="X97" s="42">
-        <v>-0.83456266873149998</v>
+        <v>-0.82629943850279997</v>
       </c>
       <c r="Y97" s="42">
-        <v>7.0494054152031396</v>
+        <v>6.99565707579149</v>
       </c>
       <c r="Z97" s="42">
-        <v>1.0516730449503899</v>
+        <v>1.08411877850851</v>
       </c>
       <c r="AA97" s="42">
-        <v>1.7462043004671299</v>
+        <v>1.7625329951122</v>
       </c>
       <c r="AB97" s="42">
-        <v>0.81936524797935995</v>
+        <v>0.79733114082935996</v>
       </c>
       <c r="AC97" s="42">
-        <v>-1.3321089168643001</v>
+        <v>-1.3137233497859</v>
       </c>
       <c r="AD97" s="42">
-        <v>1.57802134161527</v>
+        <v>1.5892981629843199</v>
       </c>
       <c r="AE97" s="42">
-        <v>0.50167989220235998</v>
+        <v>0.53764269533460995</v>
       </c>
       <c r="AF97" s="42">
-        <v>-3.2132205649699999E-2</v>
+        <v>1.427083881109E-2</v>
       </c>
       <c r="AG97" s="42">
-        <v>-4.1815152838948997</v>
+        <v>-4.1159980874475997</v>
       </c>
       <c r="AH97" s="42">
-        <v>2.4804277176147602</v>
+        <v>2.5033487438258502</v>
       </c>
       <c r="AI97" s="42">
-        <v>0.64986112741816005</v>
+        <v>0.68393264147382005</v>
       </c>
       <c r="AJ97" s="42">
-        <v>2.03572271010799</v>
+        <v>2.0516291493402998</v>
       </c>
       <c r="AK97" s="42">
-        <v>1.99365806935983</v>
+        <v>2.0098098229861598</v>
       </c>
       <c r="AL97" s="42">
-        <v>2.0531117885292498</v>
+        <v>2.07106641894124</v>
       </c>
       <c r="AM97" s="42">
-        <v>2.02140808629099</v>
+        <v>2.0394358201637299</v>
       </c>
       <c r="AN97" s="42">
-        <v>2.2266713162639502</v>
+        <v>2.2418237203913902</v>
       </c>
       <c r="AO97" s="42">
-        <v>2.2524793085644301</v>
+        <v>2.2675801300073601</v>
       </c>
       <c r="AP97" s="43">
-        <v>2.1094084051630002</v>
+        <v>2.1258869204851698</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C98" s="39">
-        <v>5.8349133512890496</v>
+        <v>5.8347192431247796</v>
       </c>
       <c r="D98" s="39">
-        <v>6.1242780509086696</v>
+        <v>6.1242948685376302</v>
       </c>
       <c r="E98" s="39">
-        <v>2.7070441193780801</v>
+        <v>2.7075810720031499</v>
       </c>
       <c r="F98" s="39">
-        <v>-1.6008392333264001</v>
+        <v>-1.722941109215</v>
       </c>
       <c r="G98" s="39">
-        <v>-1.6520986643372999</v>
+        <v>-1.8185774609600001</v>
       </c>
       <c r="H98" s="39">
-        <v>1.4328877235397499</v>
+        <v>1.34341258348596</v>
       </c>
       <c r="I98" s="39">
-        <v>2.4489695196029801</v>
+        <v>2.3692160783562501</v>
       </c>
       <c r="J98" s="39">
-        <v>0.50503317704562001</v>
+        <v>0.42224183723232001</v>
       </c>
       <c r="K98" s="39">
-        <v>0.57799215657684</v>
+        <v>0.61028005452202005</v>
       </c>
       <c r="L98" s="39">
-        <v>0.68799685627656004</v>
+        <v>0.79051080881699998</v>
       </c>
       <c r="M98" s="39">
-        <v>2.2287999985894098</v>
+        <v>2.34882292878862</v>
       </c>
       <c r="N98" s="39">
-        <v>0.52663217487642999</v>
+        <v>0.70749623931078998</v>
       </c>
       <c r="O98" s="39">
-        <v>1.29678840571536</v>
+        <v>1.42748691785648</v>
       </c>
       <c r="P98" s="39">
-        <v>7.7319415181375897</v>
+        <v>7.81407834856698</v>
       </c>
       <c r="Q98" s="39">
-        <v>9.3060815255215701</v>
+        <v>9.3449812000563792</v>
       </c>
       <c r="R98" s="39">
-        <v>4.0470593967208597</v>
+        <v>4.1377457177778103</v>
       </c>
       <c r="S98" s="39">
-        <v>4.4040711097143204</v>
+        <v>4.4638937257842901</v>
       </c>
       <c r="T98" s="39">
-        <v>5.2759038897755204</v>
+        <v>5.3331903010795596</v>
       </c>
       <c r="U98" s="39">
-        <v>2.16961106462196</v>
+        <v>2.3383830517350401</v>
       </c>
       <c r="V98" s="39">
-        <v>-0.1025357032331</v>
+        <v>-2.67020113464E-2</v>
       </c>
       <c r="W98" s="39">
-        <v>2.42749491012147</v>
+        <v>2.6406422620154801</v>
       </c>
       <c r="X98" s="39">
-        <v>2.1456141083827598</v>
+        <v>2.3216279455958801</v>
       </c>
       <c r="Y98" s="39">
-        <v>1.8397550132273299</v>
+        <v>1.8895257608338301</v>
       </c>
       <c r="Z98" s="39">
-        <v>1.5240417869931999</v>
+        <v>1.4557026001317701</v>
       </c>
       <c r="AA98" s="39">
-        <v>2.0536013279235901</v>
+        <v>2.0567919416798199</v>
       </c>
       <c r="AB98" s="39">
-        <v>2.0744071018980001E-2</v>
+        <v>4.9507722175719998E-2</v>
       </c>
       <c r="AC98" s="39">
-        <v>3.29114155899993</v>
+        <v>3.1771306823883401</v>
       </c>
       <c r="AD98" s="39">
-        <v>0.69895434578743998</v>
+        <v>0.74554583581536005</v>
       </c>
       <c r="AE98" s="39">
-        <v>0.80626269196906997</v>
+        <v>0.77570004297367001</v>
       </c>
       <c r="AF98" s="39">
-        <v>0.20845039807002999</v>
+        <v>0.11097913494196</v>
       </c>
       <c r="AG98" s="39">
-        <v>-2.41962042328</v>
+        <v>-2.4660577152426</v>
       </c>
       <c r="AH98" s="39">
-        <v>3.1628577265798699</v>
+        <v>3.1595640877266802</v>
       </c>
       <c r="AI98" s="39">
-        <v>3.5984789696219899</v>
+        <v>3.53369658574164</v>
       </c>
       <c r="AJ98" s="39">
-        <v>1.2321081317162299</v>
+        <v>1.2241893511973501</v>
       </c>
       <c r="AK98" s="39">
-        <v>2.20838762935922</v>
+        <v>2.17898685433713</v>
       </c>
       <c r="AL98" s="39">
-        <v>2.6255867306969698</v>
+        <v>2.5981194971464099</v>
       </c>
       <c r="AM98" s="39">
-        <v>2.8426495250839698</v>
+        <v>2.8060552154335299</v>
       </c>
       <c r="AN98" s="39">
-        <v>2.9848402758655799</v>
+        <v>2.9471214785695401</v>
       </c>
       <c r="AO98" s="39">
-        <v>2.97920573416283</v>
+        <v>2.9425306321623599</v>
       </c>
       <c r="AP98" s="40">
-        <v>2.7277218230867999</v>
+        <v>2.6941600752147901</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.35">
@@ -13834,7 +13842,7 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C100" s="47"/>
       <c r="D100" s="47"/>
@@ -13879,7 +13887,7 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C101" s="47"/>
       <c r="D101" s="47"/>
@@ -13924,7 +13932,7 @@
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C102" s="47"/>
       <c r="D102" s="47"/>
@@ -13969,7 +13977,7 @@
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C103" s="47"/>
       <c r="D103" s="47"/>
@@ -14014,7 +14022,7 @@
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C104" s="47"/>
       <c r="D104" s="47"/>
@@ -14058,8 +14066,8 @@
       <c r="AP104" s="47"/>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A105" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C105" s="47"/>
       <c r="D105" s="47"/>
@@ -14146,7 +14154,7 @@
     </row>
     <row r="107" spans="1:42" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C107" s="47"/>
       <c r="D107" s="47"/>
@@ -14234,7 +14242,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C109" s="47"/>
       <c r="D109" s="47"/>
@@ -14279,7 +14287,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="47"/>
@@ -14367,7 +14375,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -14412,7 +14420,7 @@
     </row>
     <row r="113" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
@@ -14499,11 +14507,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{51E106FB-D13B-41F3-BC84-21E22CD9A4F6}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3D8B8F8B-C80B-4C4F-94AB-B1C9CC5109EE}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{95D0B19F-A98F-4654-835D-8FECBB92328C}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{281D40FC-90D9-44E3-BAD8-9D1DBBC581E6}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{64346D0C-3A12-4049-B51D-7BE05770F59B}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{ADFD411F-015F-4A5A-B904-9BB9062B0D57}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D3B96F1B-A760-4938-810D-0BE5A78164E5}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{9EB12F58-BBA0-4A81-BB4E-FCBDF88B62A2}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{8CAEBD62-82F5-4F7E-A967-C61476CC09B7}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{91960E2E-E54D-48BE-84CE-553046C84FBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7391FB69-7D5E-4DE3-B304-A6253EE2A064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F0D154-D523-4F29-B672-5A45DEB43FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{44C67735-7355-4873-8688-D43027562FF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4DFBE29-6D17-459E-8027-F6C56E6F0BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB396AC1-8B27-42EC-94A6-DCC4FE163796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5014983D-67AD-45FE-87C6-C898B85618DD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14507,11 +14507,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{ADFD411F-015F-4A5A-B904-9BB9062B0D57}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D3B96F1B-A760-4938-810D-0BE5A78164E5}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{9EB12F58-BBA0-4A81-BB4E-FCBDF88B62A2}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{8CAEBD62-82F5-4F7E-A967-C61476CC09B7}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{91960E2E-E54D-48BE-84CE-553046C84FBC}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6D645AE2-9036-4FDA-8DC9-61FC8221A20D}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1F6B9116-D3C3-4D35-A8DB-DBE60A5EE2C1}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1A8F85CE-C4B6-4007-81BB-468B69781B57}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{135D939B-6600-40BC-9FF6-7DE56DA3105C}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{DC895148-16EB-424F-B21D-5D951251DE41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F0D154-D523-4F29-B672-5A45DEB43FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C03925-2E91-48C5-8971-5E730B6B34B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4DFBE29-6D17-459E-8027-F6C56E6F0BE8}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5B0A3E9D-1D74-4957-AD9C-1E89AC0C198A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
   <si>
     <t>Tableau 4 : Taux de croissance annuelle du PIB réel par habitant, 1990-2028</t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
   </si>
   <si>
     <t>2022</t>
@@ -1394,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5014983D-67AD-45FE-87C6-C898B85618DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7A4414-3891-4189-BEEE-81296F51A135}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1553,23 +1547,23 @@
       <c r="AF2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="AM2" s="7">
         <v>2026</v>
@@ -1581,15 +1575,15 @@
         <v>2028</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11">
         <v>-6.6264093119513001</v>
@@ -1714,10 +1708,10 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="14">
         <v>5.5593948108145099</v>
@@ -1842,10 +1836,10 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="17">
         <v>6.2490958826843004</v>
@@ -1970,10 +1964,10 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="17">
         <v>3.3256091759874802</v>
@@ -2098,10 +2092,10 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="17">
         <v>1.6509045888299501</v>
@@ -2226,10 +2220,10 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="17">
         <v>-0.63876595092770005</v>
@@ -2354,13 +2348,13 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="D9" s="17">
         <v>1.87441546850894</v>
@@ -2482,10 +2476,10 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="17">
         <v>-3.3396211835775</v>
@@ -2610,10 +2604,10 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="14">
         <v>-3.1024238476738999</v>
@@ -2738,37 +2732,37 @@
     </row>
     <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L12" s="17">
         <v>-2.5293655384028</v>
@@ -2866,10 +2860,10 @@
     </row>
     <row r="13" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="21">
         <v>-2.9060250674955999</v>
@@ -2994,10 +2988,10 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="17">
         <v>1.3811068702876099</v>
@@ -3122,10 +3116,10 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="17">
         <v>-8.9630001996583992</v>
@@ -3250,10 +3244,10 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="17">
         <v>-1.7068217262609</v>
@@ -3378,10 +3372,10 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="24">
         <v>0.43115743383233002</v>
@@ -3506,10 +3500,10 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="24">
         <v>-1.8021056996934</v>
@@ -3634,10 +3628,10 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="14">
         <v>-9.5842200014837005</v>
@@ -3762,10 +3756,10 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="24">
         <v>-1.2361135750621</v>
@@ -3890,10 +3884,10 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="24">
         <v>2.31006078406344</v>
@@ -4018,10 +4012,10 @@
     </row>
     <row r="22" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="17">
         <v>-4.5089243061718003</v>
@@ -4146,10 +4140,10 @@
     </row>
     <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="21">
         <v>-5.911384956919</v>
@@ -4274,10 +4268,10 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="17">
         <v>4.4902607253694704</v>
@@ -4402,13 +4396,13 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="17">
         <v>-12.261921502218</v>
@@ -4530,19 +4524,19 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F26" s="17">
         <v>9.4487141686611604</v>
@@ -4658,10 +4652,10 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="17">
         <v>-1.0031022564665999</v>
@@ -4786,10 +4780,10 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="17">
         <v>0.65181764422639998</v>
@@ -4914,10 +4908,10 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="17">
         <v>0.1257742365342</v>
@@ -5042,10 +5036,10 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30" s="17">
         <v>5.8763587474377497</v>
@@ -5170,10 +5164,10 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" s="17">
         <v>-2.0227694268441998</v>
@@ -5298,10 +5292,10 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="17">
         <v>6.3735194622823297</v>
@@ -5426,76 +5420,76 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y33" s="17">
         <v>-0.61803801604539998</v>
@@ -5554,76 +5548,76 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y34" s="24">
         <v>-52.447843621592</v>
@@ -5682,10 +5676,10 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" s="17">
         <v>-0.78680234287749995</v>
@@ -5810,10 +5804,10 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36" s="17">
         <v>4.2547926909440896</v>
@@ -5938,10 +5932,10 @@
     </row>
     <row r="37" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="17">
         <v>3.1178722679592301</v>
@@ -6066,10 +6060,10 @@
     </row>
     <row r="38" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="21">
         <v>0.83898605132481996</v>
@@ -6194,10 +6188,10 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="24">
         <v>-1.6829285156867999</v>
@@ -6322,10 +6316,10 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C40" s="17">
         <v>-0.2420146789465</v>
@@ -6450,10 +6444,10 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" s="24">
         <v>1.10223858057732</v>
@@ -6578,13 +6572,13 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="24">
         <v>-2.9170469757083</v>
@@ -6706,10 +6700,10 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" s="17">
         <v>2.24494484654375</v>
@@ -6834,10 +6828,10 @@
     </row>
     <row r="44" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" s="17">
         <v>4.7449415046679801</v>
@@ -6962,10 +6956,10 @@
     </row>
     <row r="45" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C45" s="21">
         <v>0.15520357836630999</v>
@@ -7090,10 +7084,10 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" s="17">
         <v>5.7124274752287798</v>
@@ -7218,10 +7212,10 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C47" s="17">
         <v>-3.1732163890847001</v>
@@ -7346,10 +7340,10 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C48" s="24">
         <v>-1.0788288898981999</v>
@@ -7474,10 +7468,10 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C49" s="17">
         <v>-4.8070287216196999</v>
@@ -7602,10 +7596,10 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50" s="17">
         <v>1.54333792868613</v>
@@ -7730,10 +7724,10 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="14">
         <v>0.94908587089167995</v>
@@ -7858,10 +7852,10 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C52" s="17">
         <v>0.74523953197116999</v>
@@ -7986,10 +7980,10 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" s="17">
         <v>2.9348868340933798</v>
@@ -8114,43 +8108,43 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N54" s="17">
         <v>-0.22006606406259999</v>
@@ -8242,10 +8236,10 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" s="17">
         <v>7.2218650329388199</v>
@@ -8370,10 +8364,10 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C56" s="17">
         <v>-4.3099230823508003</v>
@@ -8498,13 +8492,13 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D57" s="17">
         <v>-3.0677207233837001</v>
@@ -8626,10 +8620,10 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="17">
         <v>-3.4983690329726</v>
@@ -8754,10 +8748,10 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59" s="17">
         <v>-2.2940843368295001</v>
@@ -8882,10 +8876,10 @@
     </row>
     <row r="60" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C60" s="14">
         <v>2.8292963599451002</v>
@@ -9011,7 +9005,7 @@
     <row r="61" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="19"/>
       <c r="B61" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C61" s="21">
         <v>-0.59397986248419998</v>
@@ -9137,7 +9131,7 @@
     <row r="62" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="27"/>
       <c r="B62" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C62" s="29">
         <v>-1.0698092483363</v>
@@ -9263,7 +9257,7 @@
     <row r="63" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="27"/>
       <c r="B63" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="32">
         <v>1.8210954306037801</v>
@@ -9389,7 +9383,7 @@
     <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C64" s="29">
         <v>-1.2373972728560001</v>
@@ -9515,7 +9509,7 @@
     <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C65" s="36">
         <v>4.4989218117644603</v>
@@ -9641,7 +9635,7 @@
     <row r="66" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66" s="39">
         <v>1.6051519494312001</v>
@@ -9767,7 +9761,7 @@
     <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="42">
         <v>-0.28996570822349998</v>
@@ -9893,7 +9887,7 @@
     <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C68" s="36">
         <v>0.34649512151119999</v>
@@ -10019,7 +10013,7 @@
     <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C69" s="36">
         <v>-1.1126548209336999</v>
@@ -10145,7 +10139,7 @@
     <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C70" s="36">
         <v>-5.8602877840129004</v>
@@ -10271,7 +10265,7 @@
     <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C71" s="36">
         <v>-0.59397986248419998</v>
@@ -10397,7 +10391,7 @@
     <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="36">
         <v>9.0398570873789996E-2</v>
@@ -10523,7 +10517,7 @@
     <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="36">
         <v>-2.7935390460877998</v>
@@ -10649,7 +10643,7 @@
     <row r="74" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74" s="36">
         <v>0.45131994746784998</v>
@@ -10775,7 +10769,7 @@
     <row r="75" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C75" s="39">
         <v>-4.7253731869719999</v>
@@ -10901,7 +10895,7 @@
     <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" s="42">
         <v>6.2556516981255603</v>
@@ -11027,7 +11021,7 @@
     <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77" s="36">
         <v>-3.9234240260147</v>
@@ -11153,7 +11147,7 @@
     <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="36">
         <v>2.3757090571834598</v>
@@ -11279,7 +11273,7 @@
     <row r="79" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" s="39">
         <v>2.1162093025391502</v>
@@ -11405,7 +11399,7 @@
     <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C80" s="42">
         <v>-1.1367888863914</v>
@@ -11531,7 +11525,7 @@
     <row r="81" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C81" s="36">
         <v>9.6395283020477098</v>
@@ -11657,7 +11651,7 @@
     <row r="82" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C82" s="36">
         <v>-1.056988235513</v>
@@ -11783,7 +11777,7 @@
     <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C83" s="39">
         <v>1.3348063178713501</v>
@@ -11909,7 +11903,7 @@
     <row r="84" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C84" s="42">
         <v>-1.6075336979587</v>
@@ -12035,7 +12029,7 @@
     <row r="85" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C85" s="36">
         <v>8.0383400403637495</v>
@@ -12161,7 +12155,7 @@
     <row r="86" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C86" s="36">
         <v>-0.65756712950090002</v>
@@ -12287,7 +12281,7 @@
     <row r="87" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C87" s="36">
         <v>4.7704789834028398</v>
@@ -12413,7 +12407,7 @@
     <row r="88" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" s="36">
         <v>-1.8861517496910001</v>
@@ -12539,7 +12533,7 @@
     <row r="89" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C89" s="36">
         <v>0.89761902271019001</v>
@@ -12665,7 +12659,7 @@
     <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C90" s="39">
         <v>2.4187770722380701</v>
@@ -12791,7 +12785,7 @@
     <row r="91" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C91" s="42">
         <v>-1.3018650411507999</v>
@@ -12917,7 +12911,7 @@
     <row r="92" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C92" s="36">
         <v>2.8288940892665799</v>
@@ -13043,7 +13037,7 @@
     <row r="93" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C93" s="36">
         <v>4.5527557808443904</v>
@@ -13169,7 +13163,7 @@
     <row r="94" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C94" s="36">
         <v>2.3409350934275599</v>
@@ -13295,7 +13289,7 @@
     <row r="95" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C95" s="36">
         <v>0.59761985163108999</v>
@@ -13421,7 +13415,7 @@
     <row r="96" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C96" s="39">
         <v>2.0096359222697502</v>
@@ -13547,7 +13541,7 @@
     <row r="97" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C97" s="42">
         <v>-1.1246833207706</v>
@@ -13673,7 +13667,7 @@
     <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C98" s="39">
         <v>5.8347192431247796</v>
@@ -13842,7 +13836,7 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C100" s="47"/>
       <c r="D100" s="47"/>
@@ -13887,7 +13881,7 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C101" s="47"/>
       <c r="D101" s="47"/>
@@ -13932,7 +13926,7 @@
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C102" s="47"/>
       <c r="D102" s="47"/>
@@ -13977,7 +13971,7 @@
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C103" s="47"/>
       <c r="D103" s="47"/>
@@ -14022,7 +14016,7 @@
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C104" s="47"/>
       <c r="D104" s="47"/>
@@ -14067,7 +14061,7 @@
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C105" s="47"/>
       <c r="D105" s="47"/>
@@ -14154,7 +14148,7 @@
     </row>
     <row r="107" spans="1:42" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C107" s="47"/>
       <c r="D107" s="47"/>
@@ -14242,7 +14236,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C109" s="47"/>
       <c r="D109" s="47"/>
@@ -14287,7 +14281,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="47"/>
@@ -14375,7 +14369,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -14420,7 +14414,7 @@
     </row>
     <row r="113" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
@@ -14507,11 +14501,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6D645AE2-9036-4FDA-8DC9-61FC8221A20D}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1F6B9116-D3C3-4D35-A8DB-DBE60A5EE2C1}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1A8F85CE-C4B6-4007-81BB-468B69781B57}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{135D939B-6600-40BC-9FF6-7DE56DA3105C}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{DC895148-16EB-424F-B21D-5D951251DE41}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{3034A6A8-143A-4702-AA5F-32E75F53A9ED}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{60B73C3A-8C27-4F7A-986E-23889BD7CDE3}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{21AB1E78-4CE8-44F2-B3AD-EA1196374451}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{ED295067-5E89-4FEB-A6A6-0BD38C0C4A78}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{A8266C41-4A0A-472C-A424-8FA585E3BEA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C03925-2E91-48C5-8971-5E730B6B34B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5AE225-FA83-4822-86CE-1DB0C805429B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5B0A3E9D-1D74-4957-AD9C-1E89AC0C198A}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{627D5B5C-222D-4490-B114-8040A377A9DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="199">
   <si>
     <t>Tableau 4 : Taux de croissance annuelle du PIB réel par habitant, 1990-2028</t>
   </si>
@@ -621,16 +621,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7A4414-3891-4189-BEEE-81296F51A135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BBFFE1-02C0-427A-983D-63E5705A9FBD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14236,7 +14239,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C109" s="47"/>
       <c r="D109" s="47"/>
@@ -14281,7 +14284,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="47"/>
@@ -14325,7 +14328,9 @@
       <c r="AP110" s="47"/>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="C111" s="47"/>
       <c r="D111" s="47"/>
       <c r="E111" s="47"/>
@@ -14369,7 +14374,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -14414,7 +14419,7 @@
     </row>
     <row r="113" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
@@ -14501,13 +14506,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{3034A6A8-143A-4702-AA5F-32E75F53A9ED}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{60B73C3A-8C27-4F7A-986E-23889BD7CDE3}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{21AB1E78-4CE8-44F2-B3AD-EA1196374451}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{ED295067-5E89-4FEB-A6A6-0BD38C0C4A78}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{A8266C41-4A0A-472C-A424-8FA585E3BEA4}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{52D28BB5-A293-4268-8321-BC7F01C60E07}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{59FAD1F3-5417-4ABD-85AB-690BB9554A13}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{BA2BCE6E-60B2-4638-9A81-3BCAC56477F7}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{01448093-F254-4CFC-9728-E17DE701F620}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{BCCC1BCA-5017-4F99-BDB8-E3A1EC7627D1}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{1ACBD0F6-A7B9-43AC-A81A-7B6DF91A8385}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>